--- a/LUMA/tools/RefinementGuide.xlsx
+++ b/LUMA/tools/RefinementGuide.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="84">
   <si>
     <t>Computational domain size according with L</t>
   </si>
@@ -307,6 +307,12 @@
   </si>
   <si>
     <t>% LUPTS</t>
+  </si>
+  <si>
+    <t>LUMA Refs</t>
+  </si>
+  <si>
+    <t>Object @</t>
   </si>
 </sst>
 </file>
@@ -579,7 +585,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -611,12 +617,19 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="110">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -1136,13 +1149,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>105784</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>23309</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>437478</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>68132</xdr:rowOff>
@@ -1483,34 +1496,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1985,10 +1998,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:V40"/>
+  <dimension ref="A4:AA40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U40" sqref="U40"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S41" sqref="S41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2005,22 +2018,24 @@
     <col min="12" max="12" width="8" customWidth="1"/>
     <col min="13" max="13" width="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8" customWidth="1"/>
-    <col min="16" max="16" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="8" customWidth="1"/>
+    <col min="21" max="21" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="J4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="19">
         <v>4</v>
       </c>
@@ -2031,48 +2046,55 @@
         <v>77</v>
       </c>
       <c r="D8" s="14"/>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
       <c r="J8" s="14"/>
-      <c r="K8" s="22" t="s">
+      <c r="K8" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14" t="s">
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="R8" s="14" t="s">
+      <c r="W8" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="S8" s="14" t="s">
+      <c r="X8" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="T8" s="14" t="s">
+      <c r="Y8" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="U8" s="14" t="s">
+      <c r="Z8" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="V8" s="14" t="s">
+      <c r="AA8" s="14" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="19"/>
       <c r="B9" t="s">
         <v>42</v>
       </c>
       <c r="C9" s="18">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
         <v>68</v>
@@ -2099,42 +2121,43 @@
       <c r="N9" s="18">
         <v>25</v>
       </c>
-      <c r="P9" t="s">
+      <c r="O9" s="24"/>
+      <c r="U9" t="s">
         <v>62</v>
       </c>
-      <c r="Q9">
+      <c r="V9">
         <f>F9*H9*C9^2</f>
-        <v>360000</v>
-      </c>
-      <c r="R9">
+        <v>250000</v>
+      </c>
+      <c r="W9">
         <f>C9^2*(F9*H9-F10*H10)</f>
-        <v>356544</v>
-      </c>
-      <c r="S9" s="16">
+        <v>247600</v>
+      </c>
+      <c r="X9" s="16">
         <f>(F9*H9-F10*H10)/(F9*H9)</f>
         <v>0.99039999999999995</v>
       </c>
-      <c r="T9" s="15">
-        <f>R9/R15</f>
+      <c r="Y9" s="15">
+        <f>W9/W15</f>
         <v>0.88051209103840677</v>
       </c>
-      <c r="U9">
-        <f>R9</f>
-        <v>356544</v>
-      </c>
-      <c r="V9" s="15">
-        <f>U9/$U$15</f>
+      <c r="Z9">
+        <f>W9</f>
+        <v>247600</v>
+      </c>
+      <c r="AA9" s="15">
+        <f>Z9/$Z$15</f>
         <v>0.5551569506726457</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="19"/>
       <c r="B10" t="s">
         <v>43</v>
       </c>
       <c r="C10">
         <f>C9*2</f>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
         <v>33</v>
@@ -2164,42 +2187,58 @@
         <f>N9-(H10-1)/2</f>
         <v>24</v>
       </c>
-      <c r="P10" t="s">
+      <c r="P10" s="26">
+        <f>L10*$C$9</f>
+        <v>190</v>
+      </c>
+      <c r="Q10" s="26">
+        <f>(L10+F10)*$C$9</f>
+        <v>270</v>
+      </c>
+      <c r="R10" s="26">
+        <f>N10*$C$9</f>
+        <v>240</v>
+      </c>
+      <c r="S10" s="26">
+        <f>(N10+H10)*$C$9</f>
+        <v>270</v>
+      </c>
+      <c r="U10" t="s">
         <v>63</v>
       </c>
-      <c r="Q10">
+      <c r="V10">
         <f>F10*H10*C10^2</f>
-        <v>13824</v>
-      </c>
-      <c r="R10">
+        <v>9600</v>
+      </c>
+      <c r="W10">
         <f>C10^2*(F10*H10-F11*H11)</f>
-        <v>9216</v>
-      </c>
-      <c r="S10" s="16">
+        <v>6400</v>
+      </c>
+      <c r="X10" s="16">
         <f>(F10*H10-F11*H11)/(F9*H9)</f>
         <v>6.4000000000000003E-3</v>
       </c>
-      <c r="T10" s="15">
-        <f>R10/R15</f>
+      <c r="Y10" s="15">
+        <f>W10/W15</f>
         <v>2.2759601706970129E-2</v>
       </c>
-      <c r="U10">
-        <f>R10*2</f>
-        <v>18432</v>
-      </c>
-      <c r="V10" s="15">
-        <f t="shared" ref="V10:V12" si="0">U10/$U$15</f>
+      <c r="Z10">
+        <f>W10*2</f>
+        <v>12800</v>
+      </c>
+      <c r="AA10" s="15">
+        <f t="shared" ref="AA10:AA12" si="0">Z10/$Z$15</f>
         <v>2.8699551569506727E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="19"/>
       <c r="B11" t="s">
         <v>44</v>
       </c>
       <c r="C11">
         <f>C10*2</f>
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E11" t="s">
         <v>35</v>
@@ -2228,42 +2267,58 @@
         <f>N9-(H11-1)/2</f>
         <v>24.5</v>
       </c>
-      <c r="P11" t="s">
+      <c r="P11" s="26">
+        <f>(L11-L10)*$C$10</f>
+        <v>10</v>
+      </c>
+      <c r="Q11" s="26">
+        <f>(L11-L10+F11)*$C$10</f>
+        <v>90</v>
+      </c>
+      <c r="R11" s="26">
+        <f>(N11-N10)*$C$10</f>
+        <v>10</v>
+      </c>
+      <c r="S11" s="26">
+        <f>(N11-N10+H11)*$C$10</f>
+        <v>50</v>
+      </c>
+      <c r="U11" t="s">
         <v>64</v>
       </c>
-      <c r="Q11">
+      <c r="V11">
         <f>F11*H11*C11^2</f>
-        <v>18432</v>
-      </c>
-      <c r="R11">
+        <v>12800</v>
+      </c>
+      <c r="W11">
         <f>C11^2*(H11*F11-F12*H12)</f>
-        <v>11520</v>
-      </c>
-      <c r="S11" s="16">
+        <v>8000</v>
+      </c>
+      <c r="X11" s="16">
         <f>(F11*H11-F12*H12)/(F9*H9)</f>
         <v>2E-3</v>
       </c>
-      <c r="T11" s="15">
-        <f>R11/R15</f>
+      <c r="Y11" s="15">
+        <f>W11/W15</f>
         <v>2.8449502133712661E-2</v>
       </c>
-      <c r="U11">
-        <f>R11*4</f>
-        <v>46080</v>
-      </c>
-      <c r="V11" s="15">
+      <c r="Z11">
+        <f>W11*4</f>
+        <v>32000</v>
+      </c>
+      <c r="AA11" s="15">
         <f t="shared" si="0"/>
         <v>7.1748878923766815E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" s="19"/>
       <c r="B12" t="s">
         <v>45</v>
       </c>
       <c r="C12">
         <f>C11*2</f>
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="E12" t="s">
         <v>37</v>
@@ -2292,80 +2347,109 @@
         <f>N9-(H12-1)/2</f>
         <v>24.75</v>
       </c>
-      <c r="P12" t="s">
+      <c r="P12" s="26">
+        <f>(L12-L11)*$C$11</f>
+        <v>10</v>
+      </c>
+      <c r="Q12" s="26">
+        <f>(L12-L11+F12)*$C$11</f>
+        <v>90</v>
+      </c>
+      <c r="R12" s="26">
+        <f>(N12-N11)*$C$11</f>
+        <v>10</v>
+      </c>
+      <c r="S12" s="26">
+        <f>(N12-N11+H12)*$C$11</f>
+        <v>70</v>
+      </c>
+      <c r="U12" t="s">
         <v>65</v>
       </c>
-      <c r="Q12">
+      <c r="V12">
         <f>F12*H12*C12^2</f>
-        <v>27648</v>
-      </c>
-      <c r="R12">
-        <f>Q12</f>
-        <v>27648</v>
-      </c>
-      <c r="S12" s="16">
+        <v>19200</v>
+      </c>
+      <c r="W12">
+        <f>V12</f>
+        <v>19200</v>
+      </c>
+      <c r="X12" s="16">
         <f>(F12*H12)/(F9*H9)</f>
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="T12" s="15">
-        <f>R12/R15</f>
+      <c r="Y12" s="15">
+        <f>W12/W15</f>
         <v>6.8278805120910391E-2</v>
       </c>
-      <c r="U12">
-        <f>R12*8</f>
-        <v>221184</v>
-      </c>
-      <c r="V12" s="15">
+      <c r="Z12">
+        <f>W12*8</f>
+        <v>153600</v>
+      </c>
+      <c r="AA12" s="15">
         <f t="shared" si="0"/>
         <v>0.34439461883408073</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" s="19"/>
-      <c r="T13" s="15"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="Y13" s="15"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="19"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="O14" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="27">
+        <f>($F$12-1)/2 *$C$12</f>
+        <v>40</v>
+      </c>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="19"/>
-      <c r="P15" t="s">
+      <c r="P15" s="27">
+        <f>($H$12-1)/2 *$C$12</f>
+        <v>20</v>
+      </c>
+      <c r="U15" t="s">
         <v>74</v>
       </c>
-      <c r="R15">
-        <f>SUM(R9:R12)</f>
-        <v>404928</v>
-      </c>
-      <c r="S15" s="17">
-        <f>SUM(S9:S12)</f>
+      <c r="W15">
+        <f>SUM(W9:W12)</f>
+        <v>281200</v>
+      </c>
+      <c r="X15" s="17">
+        <f>SUM(X9:X12)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="T15" s="17">
-        <f>SUM(T9:T12)</f>
+      <c r="Y15" s="17">
+        <f>SUM(Y9:Y12)</f>
         <v>1</v>
       </c>
-      <c r="U15">
-        <f>SUM(U9:U12)</f>
-        <v>642240</v>
-      </c>
-      <c r="V15" s="15">
-        <f>SUM(V9:V12)</f>
+      <c r="Z15">
+        <f>SUM(Z9:Z12)</f>
+        <v>446000</v>
+      </c>
+      <c r="AA15" s="15">
+        <f>SUM(AA9:AA12)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" s="19"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" s="19"/>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" s="19"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" s="19">
         <v>5</v>
       </c>
@@ -2376,48 +2460,55 @@
         <v>77</v>
       </c>
       <c r="D19" s="14"/>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
       <c r="J19" s="14"/>
-      <c r="K19" s="22" t="s">
+      <c r="K19" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14" t="s">
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="R19" s="14" t="s">
+      <c r="W19" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="S19" s="14" t="s">
+      <c r="X19" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="T19" s="14" t="s">
+      <c r="Y19" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="U19" s="14" t="s">
+      <c r="Z19" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="V19" s="14" t="s">
+      <c r="AA19" s="14" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" s="19"/>
       <c r="B20" t="s">
         <v>42</v>
       </c>
       <c r="C20" s="18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E20" t="s">
         <v>68</v>
@@ -2444,42 +2535,43 @@
       <c r="N20" s="18">
         <v>25</v>
       </c>
-      <c r="P20" t="s">
+      <c r="O20" s="24"/>
+      <c r="U20" t="s">
         <v>62</v>
       </c>
-      <c r="Q20">
+      <c r="V20">
         <f>F20*H20*C20^2</f>
-        <v>90000</v>
-      </c>
-      <c r="R20">
+        <v>62500</v>
+      </c>
+      <c r="W20">
         <f>C20^2*(F20*H20-F21*H21)</f>
-        <v>87696</v>
-      </c>
-      <c r="S20" s="16">
+        <v>60900</v>
+      </c>
+      <c r="X20" s="16">
         <f>(F20*H20-F21*H21)/(F20*H20)</f>
         <v>0.97440000000000004</v>
       </c>
-      <c r="T20" s="15">
-        <f>R20/R27</f>
+      <c r="Y20" s="15">
+        <f>W20/W27</f>
         <v>0.61827411167512691</v>
       </c>
-      <c r="U20">
-        <f>R20</f>
-        <v>87696</v>
-      </c>
-      <c r="V20" s="15">
-        <f>U20/$U$27</f>
+      <c r="Z20">
+        <f>W20</f>
+        <v>60900</v>
+      </c>
+      <c r="AA20" s="15">
+        <f>Z20/$Z$27</f>
         <v>0.13077088254240929</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
       <c r="B21" t="s">
         <v>43</v>
       </c>
       <c r="C21">
         <f>C20*2</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
         <v>33</v>
@@ -2509,42 +2601,59 @@
         <f>N20-(H21-1)/2</f>
         <v>23.5</v>
       </c>
-      <c r="P21" t="s">
+      <c r="O21" s="25"/>
+      <c r="P21" s="26">
+        <f>L21*$C$20</f>
+        <v>92.5</v>
+      </c>
+      <c r="Q21" s="26">
+        <f>(L21+F21)*$C$20</f>
+        <v>172.5</v>
+      </c>
+      <c r="R21" s="26">
+        <f>N21*$C$20</f>
+        <v>117.5</v>
+      </c>
+      <c r="S21" s="26">
+        <f>(N21+H21)*$C$20</f>
+        <v>137.5</v>
+      </c>
+      <c r="U21" t="s">
         <v>63</v>
       </c>
-      <c r="Q21">
+      <c r="V21">
         <f>F21*H21*C21^2</f>
-        <v>9216</v>
-      </c>
-      <c r="R21">
+        <v>6400</v>
+      </c>
+      <c r="W21">
         <f>C21^2*(F21*H21-F22*H22)</f>
-        <v>5760</v>
-      </c>
-      <c r="S21" s="16">
+        <v>4000</v>
+      </c>
+      <c r="X21" s="16">
         <f>(F21*H21-F22*H22)/(F20*H20)</f>
         <v>1.6E-2</v>
       </c>
-      <c r="T21" s="15">
-        <f>R21/R27</f>
+      <c r="Y21" s="15">
+        <f>W21/W27</f>
         <v>4.060913705583756E-2</v>
       </c>
-      <c r="U21">
-        <f>R21*2</f>
-        <v>11520</v>
-      </c>
-      <c r="V21" s="15">
-        <f t="shared" ref="V21:V24" si="1">U21/$U$27</f>
+      <c r="Z21">
+        <f>W21*2</f>
+        <v>8000</v>
+      </c>
+      <c r="AA21" s="15">
+        <f t="shared" ref="AA21:AA24" si="1">Z21/$Z$27</f>
         <v>1.7178441056474127E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" s="19"/>
       <c r="B22" t="s">
         <v>44</v>
       </c>
       <c r="C22">
         <f>C21*2</f>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E22" t="s">
         <v>35</v>
@@ -2574,42 +2683,58 @@
         <f>N20-(H22-1)/2</f>
         <v>24</v>
       </c>
-      <c r="P22" t="s">
+      <c r="P22" s="26">
+        <f>(L22-L21)*$C$21</f>
+        <v>5</v>
+      </c>
+      <c r="Q22" s="26">
+        <f>(L22-L21+F22)*$C$21</f>
+        <v>85</v>
+      </c>
+      <c r="R22" s="26">
+        <f>(N22-N21)*$C$21</f>
+        <v>5</v>
+      </c>
+      <c r="S22" s="26">
+        <f>(N22-N21+H22)*$C$21</f>
+        <v>35</v>
+      </c>
+      <c r="U22" t="s">
         <v>64</v>
       </c>
-      <c r="Q22">
+      <c r="V22">
         <f>F22*H22*C22^2</f>
-        <v>13824</v>
-      </c>
-      <c r="R22">
+        <v>9600</v>
+      </c>
+      <c r="W22">
         <f>C22^2*(H22*F22-H23*F23)</f>
-        <v>9216</v>
-      </c>
-      <c r="S22" s="16">
+        <v>6400</v>
+      </c>
+      <c r="X22" s="16">
         <f>(F22*H22-F23*H23)/(F20*H20)</f>
         <v>6.4000000000000003E-3</v>
       </c>
-      <c r="T22" s="15">
-        <f>R22/R27</f>
+      <c r="Y22" s="15">
+        <f>W22/W27</f>
         <v>6.4974619289340105E-2</v>
       </c>
-      <c r="U22">
-        <f>R22*4</f>
-        <v>36864</v>
-      </c>
-      <c r="V22" s="15">
+      <c r="Z22">
+        <f>W22*4</f>
+        <v>25600</v>
+      </c>
+      <c r="AA22" s="15">
         <f t="shared" si="1"/>
         <v>5.4971011380717201E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23" s="19"/>
       <c r="B23" t="s">
         <v>45</v>
       </c>
       <c r="C23">
         <f>C22*2</f>
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E23" t="s">
         <v>37</v>
@@ -2639,42 +2764,58 @@
         <f>N20-(H23-1)/2</f>
         <v>24.5</v>
       </c>
-      <c r="P23" t="s">
+      <c r="P23" s="26">
+        <f>(L23-L22)*$C$22</f>
+        <v>10</v>
+      </c>
+      <c r="Q23" s="26">
+        <f>(L23-L22+F23)*$C$22</f>
+        <v>90</v>
+      </c>
+      <c r="R23" s="26">
+        <f>(N23-N22)*$C$22</f>
+        <v>10</v>
+      </c>
+      <c r="S23" s="26">
+        <f>(N23-N22+H23)*$C$22</f>
+        <v>50</v>
+      </c>
+      <c r="U23" t="s">
         <v>65</v>
       </c>
-      <c r="Q23">
+      <c r="V23">
         <f>F23*H23*C23^2</f>
-        <v>18432</v>
-      </c>
-      <c r="R23">
+        <v>12800</v>
+      </c>
+      <c r="W23">
         <f>C23^2*(H23*F23-H24*F24)</f>
-        <v>11520</v>
-      </c>
-      <c r="S23" s="16">
+        <v>8000</v>
+      </c>
+      <c r="X23" s="16">
         <f>(F23*H23-F24*H24)/(F20*H20)</f>
         <v>2E-3</v>
       </c>
-      <c r="T23" s="15">
-        <f>R23/R27</f>
+      <c r="Y23" s="15">
+        <f>W23/W27</f>
         <v>8.1218274111675121E-2</v>
       </c>
-      <c r="U23">
-        <f>R23*8</f>
-        <v>92160</v>
-      </c>
-      <c r="V23" s="15">
+      <c r="Z23">
+        <f>W23*8</f>
+        <v>64000</v>
+      </c>
+      <c r="AA23" s="15">
         <f t="shared" si="1"/>
         <v>0.13742752845179301</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24" s="19"/>
       <c r="B24" t="s">
         <v>46</v>
       </c>
       <c r="C24">
         <f>C23*2</f>
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="E24" t="s">
         <v>39</v>
@@ -2703,70 +2844,99 @@
         <f>N20-(H24-1)/2</f>
         <v>24.75</v>
       </c>
-      <c r="P24" t="s">
+      <c r="P24" s="26">
+        <f>(L24-L23)*$C$23</f>
+        <v>10</v>
+      </c>
+      <c r="Q24" s="26">
+        <f>(L24-L23+F24)*$C$23</f>
+        <v>90</v>
+      </c>
+      <c r="R24" s="26">
+        <f>(N24-N23)*$C$23</f>
+        <v>10</v>
+      </c>
+      <c r="S24" s="26">
+        <f>(N24-N23+H24)*$C$23</f>
+        <v>70</v>
+      </c>
+      <c r="U24" t="s">
         <v>66</v>
       </c>
-      <c r="Q24">
+      <c r="V24">
         <f>F24*H24*C24^2</f>
-        <v>27648</v>
-      </c>
-      <c r="R24">
-        <f>Q24</f>
-        <v>27648</v>
-      </c>
-      <c r="S24" s="16">
+        <v>19200</v>
+      </c>
+      <c r="W24">
+        <f>V24</f>
+        <v>19200</v>
+      </c>
+      <c r="X24" s="16">
         <f>(F24*H24)/(F20*H20)</f>
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="T24" s="15">
-        <f>R24/R27</f>
+      <c r="Y24" s="15">
+        <f>W24/W27</f>
         <v>0.1949238578680203</v>
       </c>
-      <c r="U24">
-        <f>R24*16</f>
-        <v>442368</v>
-      </c>
-      <c r="V24" s="15">
+      <c r="Z24">
+        <f>W24*16</f>
+        <v>307200</v>
+      </c>
+      <c r="AA24" s="15">
         <f t="shared" si="1"/>
         <v>0.65965213656860644</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25" s="19"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26" s="19"/>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="O26" t="s">
+        <v>83</v>
+      </c>
+      <c r="P26" s="27">
+        <f>($F$24-1)/2 *$C$24</f>
+        <v>40</v>
+      </c>
+      <c r="R26" s="27"/>
+      <c r="S26" s="27"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27" s="19"/>
-      <c r="P27" t="s">
+      <c r="P27" s="27">
+        <f>($H$24-1)/2 *$C$24</f>
+        <v>20</v>
+      </c>
+      <c r="U27" t="s">
         <v>74</v>
       </c>
-      <c r="R27">
-        <f>SUM(R20:R24)</f>
-        <v>141840</v>
-      </c>
-      <c r="S27" s="17">
-        <f>SUM(S20:S24)</f>
+      <c r="W27">
+        <f>SUM(W20:W24)</f>
+        <v>98500</v>
+      </c>
+      <c r="X27" s="17">
+        <f>SUM(X20:X24)</f>
         <v>1</v>
       </c>
-      <c r="T27" s="17">
-        <f>SUM(T20:T24)</f>
+      <c r="Y27" s="17">
+        <f>SUM(Y20:Y24)</f>
         <v>1</v>
       </c>
-      <c r="U27">
-        <f>SUM(U20:U24)</f>
-        <v>670608</v>
-      </c>
-      <c r="V27" s="15">
-        <f>SUM(V20:V24)</f>
+      <c r="Z27">
+        <f>SUM(Z20:Z24)</f>
+        <v>465700</v>
+      </c>
+      <c r="AA27" s="15">
+        <f>SUM(AA20:AA24)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28" s="19"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31" s="19">
         <v>6</v>
       </c>
@@ -2791,33 +2961,40 @@
       <c r="L31" s="20"/>
       <c r="M31" s="20"/>
       <c r="N31" s="20"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="14" t="s">
+      <c r="O31" s="21"/>
+      <c r="P31" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="21"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="14"/>
+      <c r="V31" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="R31" s="14" t="s">
+      <c r="W31" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="S31" s="14" t="s">
+      <c r="X31" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="T31" s="14" t="s">
+      <c r="Y31" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="U31" s="14" t="s">
+      <c r="Z31" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="V31" s="14" t="s">
+      <c r="AA31" s="14" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>42</v>
       </c>
       <c r="C32" s="18">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="E32" t="s">
         <v>68</v>
@@ -2844,41 +3021,42 @@
       <c r="N32" s="18">
         <v>25</v>
       </c>
-      <c r="P32" t="s">
+      <c r="O32" s="24"/>
+      <c r="U32" t="s">
         <v>62</v>
       </c>
-      <c r="Q32">
+      <c r="V32">
         <f>F32*H32*C32^2</f>
-        <v>22500</v>
-      </c>
-      <c r="R32">
+        <v>15625</v>
+      </c>
+      <c r="W32">
         <f>C32^2*(F32*H32-F33*H33)</f>
-        <v>21060</v>
-      </c>
-      <c r="S32" s="16">
+        <v>14625</v>
+      </c>
+      <c r="X32" s="16">
         <f>(F32*H32-F33*H33)/(F32*H32)</f>
         <v>0.93600000000000005</v>
       </c>
-      <c r="T32" s="15">
-        <f t="shared" ref="T32:T37" si="2">R32/$R$40</f>
+      <c r="Y32" s="15">
+        <f t="shared" ref="Y32:Y37" si="2">W32/$W$40</f>
         <v>0.26773455377574373</v>
       </c>
-      <c r="U32">
-        <f>R32</f>
-        <v>21060</v>
-      </c>
-      <c r="V32" s="15">
-        <f t="shared" ref="V32:V36" si="3">U32/$U$40</f>
+      <c r="Z32">
+        <f>W32</f>
+        <v>14625</v>
+      </c>
+      <c r="AA32" s="15">
+        <f t="shared" ref="AA32:AA36" si="3">Z32/$Z$40</f>
         <v>1.7641205030005127E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>43</v>
       </c>
       <c r="C33">
         <f>C32*2</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E33" t="s">
         <v>33</v>
@@ -2908,41 +3086,57 @@
         <f>N32-(H33-1)/2</f>
         <v>23</v>
       </c>
-      <c r="P33" t="s">
+      <c r="P33" s="26">
+        <f>L33*$C$32</f>
+        <v>45</v>
+      </c>
+      <c r="Q33" s="26">
+        <f>(L33+F33)*$C$32</f>
+        <v>125</v>
+      </c>
+      <c r="R33" s="26">
+        <f>N33*$C$32</f>
+        <v>57.5</v>
+      </c>
+      <c r="S33" s="26">
+        <f>(N33+H33)*$C$32</f>
+        <v>70</v>
+      </c>
+      <c r="U33" t="s">
         <v>63</v>
       </c>
-      <c r="Q33">
+      <c r="V33">
         <f>F33*H33*C33^2</f>
-        <v>5760</v>
-      </c>
-      <c r="R33">
+        <v>4000</v>
+      </c>
+      <c r="W33">
         <f>C33^2*(F33*H33-F34*H34)</f>
-        <v>3456</v>
-      </c>
-      <c r="S33" s="16">
+        <v>2400</v>
+      </c>
+      <c r="X33" s="16">
         <f>(F33*H33-F34*H34)/(F32*H32)</f>
         <v>3.8399999999999997E-2</v>
       </c>
-      <c r="T33" s="15">
+      <c r="Y33" s="15">
         <f t="shared" si="2"/>
         <v>4.3935926773455376E-2</v>
       </c>
-      <c r="U33">
-        <f>R33*2</f>
-        <v>6912</v>
-      </c>
-      <c r="V33" s="15">
+      <c r="Z33">
+        <f>W33*2</f>
+        <v>4800</v>
+      </c>
+      <c r="AA33" s="15">
         <f t="shared" si="3"/>
         <v>5.7899339585657855E-3</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>44</v>
       </c>
       <c r="C34">
         <f>C33*2</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
         <v>35</v>
@@ -2972,41 +3166,57 @@
         <f>N32-(H34-1)/2</f>
         <v>23.5</v>
       </c>
-      <c r="P34" t="s">
+      <c r="P34" s="26">
+        <f>(L34-L33)*$C$33</f>
+        <v>2.5</v>
+      </c>
+      <c r="Q34" s="26">
+        <f>(L34-L33+F34)*$C$33</f>
+        <v>82.5</v>
+      </c>
+      <c r="R34" s="26">
+        <f>(N34-N33)*$C$33</f>
+        <v>2.5</v>
+      </c>
+      <c r="S34" s="26">
+        <f>(N34-N33+H34)*$C$33</f>
+        <v>22.5</v>
+      </c>
+      <c r="U34" t="s">
         <v>64</v>
       </c>
-      <c r="Q34">
+      <c r="V34">
         <f>F34*H34*C34^2</f>
-        <v>9216</v>
-      </c>
-      <c r="R34">
+        <v>6400</v>
+      </c>
+      <c r="W34">
         <f>C34^2*(F34*H34-F35*H35)</f>
-        <v>5760</v>
-      </c>
-      <c r="S34" s="16">
+        <v>4000</v>
+      </c>
+      <c r="X34" s="16">
         <f>(F34*H34-F35*H35)/(F32*H32)</f>
         <v>1.6E-2</v>
       </c>
-      <c r="T34" s="15">
+      <c r="Y34" s="15">
         <f t="shared" si="2"/>
         <v>7.3226544622425629E-2</v>
       </c>
-      <c r="U34">
-        <f>R34*4</f>
-        <v>23040</v>
-      </c>
-      <c r="V34" s="15">
+      <c r="Z34">
+        <f>W34*4</f>
+        <v>16000</v>
+      </c>
+      <c r="AA34" s="15">
         <f t="shared" si="3"/>
         <v>1.9299779861885951E-2</v>
       </c>
     </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>45</v>
       </c>
       <c r="C35">
         <f>C34*2</f>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E35" t="s">
         <v>37</v>
@@ -3036,41 +3246,57 @@
         <f>N32-(H35-1)/2</f>
         <v>24</v>
       </c>
-      <c r="P35" t="s">
+      <c r="P35" s="26">
+        <f>(L35-L34)*$C$34</f>
+        <v>5</v>
+      </c>
+      <c r="Q35" s="26">
+        <f>(L35-L34+F35)*$C$34</f>
+        <v>85</v>
+      </c>
+      <c r="R35" s="26">
+        <f>(N35-N34)*$C$34</f>
+        <v>5</v>
+      </c>
+      <c r="S35" s="26">
+        <f>(N35-N34+H35)*$C$34</f>
+        <v>35</v>
+      </c>
+      <c r="U35" t="s">
         <v>65</v>
       </c>
-      <c r="Q35">
-        <f t="shared" ref="Q35:Q37" si="4">F35*H35*C35^2</f>
-        <v>13824</v>
-      </c>
-      <c r="R35">
+      <c r="V35">
+        <f t="shared" ref="V35:V37" si="4">F35*H35*C35^2</f>
+        <v>9600</v>
+      </c>
+      <c r="W35">
         <f>C35^2*(F35*H35-F36*H36)</f>
-        <v>9216</v>
-      </c>
-      <c r="S35" s="16">
+        <v>6400</v>
+      </c>
+      <c r="X35" s="16">
         <f>(F35*H35-F36*H36)/(F32*H32)</f>
         <v>6.4000000000000003E-3</v>
       </c>
-      <c r="T35" s="15">
+      <c r="Y35" s="15">
         <f t="shared" si="2"/>
         <v>0.11716247139588101</v>
       </c>
-      <c r="U35">
-        <f>R35*8</f>
-        <v>73728</v>
-      </c>
-      <c r="V35" s="15">
+      <c r="Z35">
+        <f>W35*8</f>
+        <v>51200</v>
+      </c>
+      <c r="AA35" s="15">
         <f t="shared" si="3"/>
         <v>6.1759295558035041E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>46</v>
       </c>
       <c r="C36">
         <f>C35*2</f>
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E36" t="s">
         <v>39</v>
@@ -3100,41 +3326,57 @@
         <f>N32-(H36-1)/2</f>
         <v>24.5</v>
       </c>
-      <c r="P36" t="s">
+      <c r="P36" s="26">
+        <f>(L36-L35)*$C$35</f>
+        <v>10</v>
+      </c>
+      <c r="Q36" s="26">
+        <f>(L36-L35+F36)*$C$35</f>
+        <v>90</v>
+      </c>
+      <c r="R36" s="26">
+        <f>(N36-N35)*$C$35</f>
+        <v>10</v>
+      </c>
+      <c r="S36" s="26">
+        <f>(N36-N35+H36)*$C$35</f>
+        <v>50</v>
+      </c>
+      <c r="U36" t="s">
         <v>66</v>
       </c>
-      <c r="Q36">
+      <c r="V36">
         <f t="shared" si="4"/>
-        <v>18432</v>
-      </c>
-      <c r="R36">
+        <v>12800</v>
+      </c>
+      <c r="W36">
         <f>C36^2*(F36*H36-F37*H37)</f>
-        <v>11520</v>
-      </c>
-      <c r="S36" s="16">
+        <v>8000</v>
+      </c>
+      <c r="X36" s="16">
         <f>(F36*H36-F37*H37)/(F32*H32)</f>
         <v>2E-3</v>
       </c>
-      <c r="T36" s="15">
+      <c r="Y36" s="15">
         <f t="shared" si="2"/>
         <v>0.14645308924485126</v>
       </c>
-      <c r="U36">
-        <f>R36*16</f>
-        <v>184320</v>
-      </c>
-      <c r="V36" s="15">
+      <c r="Z36">
+        <f>W36*16</f>
+        <v>128000</v>
+      </c>
+      <c r="AA36" s="15">
         <f t="shared" si="3"/>
         <v>0.15439823889508761</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>47</v>
       </c>
       <c r="C37">
         <f>C36*2</f>
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="E37" t="s">
         <v>41</v>
@@ -3163,56 +3405,87 @@
         <f>N32-(H37-1)/2</f>
         <v>24.75</v>
       </c>
-      <c r="P37" t="s">
+      <c r="P37" s="26">
+        <f>(L37-L36)*$C$36</f>
+        <v>10</v>
+      </c>
+      <c r="Q37" s="26">
+        <f>(L37-L36+F37)*$C$36</f>
+        <v>90</v>
+      </c>
+      <c r="R37" s="26">
+        <f>(N37-N36)*$C$36</f>
+        <v>10</v>
+      </c>
+      <c r="S37" s="26">
+        <f>(N37-N36+H37)*$C$36</f>
+        <v>70</v>
+      </c>
+      <c r="U37" t="s">
         <v>67</v>
       </c>
-      <c r="Q37">
+      <c r="V37">
         <f t="shared" si="4"/>
-        <v>27648</v>
-      </c>
-      <c r="R37">
-        <f>Q37</f>
-        <v>27648</v>
-      </c>
-      <c r="S37" s="16">
+        <v>19200</v>
+      </c>
+      <c r="W37">
+        <f>V37</f>
+        <v>19200</v>
+      </c>
+      <c r="X37" s="16">
         <f>(F37*H37)/(F32*H32)</f>
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="T37" s="15">
+      <c r="Y37" s="15">
         <f t="shared" si="2"/>
         <v>0.35148741418764301</v>
       </c>
-      <c r="U37">
-        <f>R37*32</f>
-        <v>884736</v>
-      </c>
-      <c r="V37" s="15">
-        <f>U37/$U$40</f>
+      <c r="Z37">
+        <f>W37*32</f>
+        <v>614400</v>
+      </c>
+      <c r="AA37" s="15">
+        <f>Z37/$Z$40</f>
         <v>0.74111154669642054</v>
       </c>
     </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="P40" t="s">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="O39" t="s">
+        <v>83</v>
+      </c>
+      <c r="P39" s="27">
+        <f>($F$37-1)/2 *$C$37</f>
+        <v>40</v>
+      </c>
+      <c r="R39" s="27"/>
+      <c r="S39" s="27"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="P40" s="27">
+        <f>($H$37-1)/2 *$C$37</f>
+        <v>20</v>
+      </c>
+      <c r="U40" t="s">
         <v>74</v>
       </c>
-      <c r="R40">
-        <f>SUM(R32:R37)</f>
-        <v>78660</v>
-      </c>
-      <c r="S40" s="17">
-        <f>SUM(S32:S37)</f>
+      <c r="W40">
+        <f>SUM(W32:W37)</f>
+        <v>54625</v>
+      </c>
+      <c r="X40" s="17">
+        <f>SUM(X32:X37)</f>
         <v>1</v>
       </c>
-      <c r="T40" s="17">
-        <f>SUM(T32:T37)</f>
+      <c r="Y40" s="17">
+        <f>SUM(Y32:Y37)</f>
         <v>1</v>
       </c>
-      <c r="U40">
-        <f>SUM(U32:U37)</f>
-        <v>1193796</v>
-      </c>
-      <c r="V40" s="15">
-        <f>SUM(V32:V37)</f>
+      <c r="Z40">
+        <f>SUM(Z32:Z37)</f>
+        <v>829025</v>
+      </c>
+      <c r="AA40" s="15">
+        <f>SUM(AA32:AA37)</f>
         <v>1</v>
       </c>
     </row>
@@ -3224,8 +3497,8 @@
     <mergeCell ref="K19:N19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/LUMA/tools/RefinementGuide.xlsx
+++ b/LUMA/tools/RefinementGuide.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17030"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17127"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="88">
   <si>
     <t>Computational domain size according with L</t>
   </si>
@@ -313,6 +313,18 @@
   </si>
   <si>
     <t>Object @</t>
+  </si>
+  <si>
+    <t>RefXstart</t>
+  </si>
+  <si>
+    <t>RefXend</t>
+  </si>
+  <si>
+    <t>RefYstart</t>
+  </si>
+  <si>
+    <t>RefYend</t>
   </si>
 </sst>
 </file>
@@ -585,7 +597,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -620,16 +632,19 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="110">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -1075,8 +1090,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13022035" y="580036"/>
-          <a:ext cx="8446294" cy="6745143"/>
+          <a:off x="11748407" y="590921"/>
+          <a:ext cx="7491979" cy="8359858"/>
           <a:chOff x="11579678" y="607250"/>
           <a:chExt cx="7611723" cy="8604786"/>
         </a:xfrm>
@@ -1496,34 +1511,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -2001,7 +2016,7 @@
   <dimension ref="A4:AA40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S41" sqref="S41"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2019,7 +2034,10 @@
     <col min="13" max="13" width="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8" customWidth="1"/>
     <col min="15" max="15" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="8" customWidth="1"/>
+    <col min="16" max="16" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8" customWidth="1"/>
+    <col min="18" max="18" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8" customWidth="1"/>
     <col min="21" max="21" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="12" bestFit="1" customWidth="1"/>
@@ -2046,27 +2064,27 @@
         <v>77</v>
       </c>
       <c r="D8" s="14"/>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
       <c r="J8" s="14"/>
-      <c r="K8" s="23" t="s">
+      <c r="K8" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
       <c r="O8" s="21"/>
-      <c r="P8" s="21" t="s">
+      <c r="P8" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
       <c r="T8" s="14"/>
       <c r="U8" s="14"/>
       <c r="V8" s="14" t="s">
@@ -2121,7 +2139,19 @@
       <c r="N9" s="18">
         <v>25</v>
       </c>
-      <c r="O9" s="24"/>
+      <c r="O9" s="22"/>
+      <c r="P9" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>85</v>
+      </c>
+      <c r="R9" t="s">
+        <v>86</v>
+      </c>
+      <c r="S9" t="s">
+        <v>87</v>
+      </c>
       <c r="U9" t="s">
         <v>62</v>
       </c>
@@ -2187,19 +2217,19 @@
         <f>N9-(H10-1)/2</f>
         <v>24</v>
       </c>
-      <c r="P10" s="26">
+      <c r="P10" s="24">
         <f>L10*$C$9</f>
         <v>190</v>
       </c>
-      <c r="Q10" s="26">
+      <c r="Q10" s="24">
         <f>(L10+F10)*$C$9</f>
         <v>270</v>
       </c>
-      <c r="R10" s="26">
+      <c r="R10" s="24">
         <f>N10*$C$9</f>
         <v>240</v>
       </c>
-      <c r="S10" s="26">
+      <c r="S10" s="24">
         <f>(N10+H10)*$C$9</f>
         <v>270</v>
       </c>
@@ -2267,19 +2297,19 @@
         <f>N9-(H11-1)/2</f>
         <v>24.5</v>
       </c>
-      <c r="P11" s="26">
+      <c r="P11" s="24">
         <f>(L11-L10)*$C$10</f>
         <v>10</v>
       </c>
-      <c r="Q11" s="26">
+      <c r="Q11" s="24">
         <f>(L11-L10+F11)*$C$10</f>
         <v>90</v>
       </c>
-      <c r="R11" s="26">
+      <c r="R11" s="24">
         <f>(N11-N10)*$C$10</f>
         <v>10</v>
       </c>
-      <c r="S11" s="26">
+      <c r="S11" s="24">
         <f>(N11-N10+H11)*$C$10</f>
         <v>50</v>
       </c>
@@ -2347,19 +2377,19 @@
         <f>N9-(H12-1)/2</f>
         <v>24.75</v>
       </c>
-      <c r="P12" s="26">
+      <c r="P12" s="24">
         <f>(L12-L11)*$C$11</f>
         <v>10</v>
       </c>
-      <c r="Q12" s="26">
+      <c r="Q12" s="24">
         <f>(L12-L11+F12)*$C$11</f>
         <v>90</v>
       </c>
-      <c r="R12" s="26">
+      <c r="R12" s="24">
         <f>(N12-N11)*$C$11</f>
         <v>10</v>
       </c>
-      <c r="S12" s="26">
+      <c r="S12" s="24">
         <f>(N12-N11+H12)*$C$11</f>
         <v>70</v>
       </c>
@@ -2400,19 +2430,19 @@
       <c r="O14" t="s">
         <v>83</v>
       </c>
-      <c r="P14" s="27">
+      <c r="P14" s="25">
         <f>($F$12-1)/2 *$C$12</f>
         <v>40</v>
       </c>
-      <c r="R14" s="27"/>
-      <c r="S14" s="27"/>
+      <c r="Q14" s="25">
+        <f>($H$12-1)/2 *$C$12</f>
+        <v>20</v>
+      </c>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="19"/>
-      <c r="P15" s="27">
-        <f>($H$12-1)/2 *$C$12</f>
-        <v>20</v>
-      </c>
       <c r="U15" t="s">
         <v>74</v>
       </c>
@@ -2460,27 +2490,27 @@
         <v>77</v>
       </c>
       <c r="D19" s="14"/>
-      <c r="E19" s="23" t="s">
+      <c r="E19" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
       <c r="J19" s="14"/>
-      <c r="K19" s="23" t="s">
+      <c r="K19" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
       <c r="O19" s="21"/>
-      <c r="P19" s="21" t="s">
+      <c r="P19" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="21"/>
-      <c r="S19" s="21"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="28"/>
       <c r="T19" s="14"/>
       <c r="U19" s="14"/>
       <c r="V19" s="14" t="s">
@@ -2535,7 +2565,19 @@
       <c r="N20" s="18">
         <v>25</v>
       </c>
-      <c r="O20" s="24"/>
+      <c r="O20" s="22"/>
+      <c r="P20" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>85</v>
+      </c>
+      <c r="R20" t="s">
+        <v>86</v>
+      </c>
+      <c r="S20" t="s">
+        <v>87</v>
+      </c>
       <c r="U20" t="s">
         <v>62</v>
       </c>
@@ -2601,20 +2643,20 @@
         <f>N20-(H21-1)/2</f>
         <v>23.5</v>
       </c>
-      <c r="O21" s="25"/>
-      <c r="P21" s="26">
+      <c r="O21" s="23"/>
+      <c r="P21" s="24">
         <f>L21*$C$20</f>
         <v>92.5</v>
       </c>
-      <c r="Q21" s="26">
+      <c r="Q21" s="24">
         <f>(L21+F21)*$C$20</f>
         <v>172.5</v>
       </c>
-      <c r="R21" s="26">
+      <c r="R21" s="24">
         <f>N21*$C$20</f>
         <v>117.5</v>
       </c>
-      <c r="S21" s="26">
+      <c r="S21" s="24">
         <f>(N21+H21)*$C$20</f>
         <v>137.5</v>
       </c>
@@ -2683,19 +2725,19 @@
         <f>N20-(H22-1)/2</f>
         <v>24</v>
       </c>
-      <c r="P22" s="26">
+      <c r="P22" s="24">
         <f>(L22-L21)*$C$21</f>
         <v>5</v>
       </c>
-      <c r="Q22" s="26">
+      <c r="Q22" s="24">
         <f>(L22-L21+F22)*$C$21</f>
         <v>85</v>
       </c>
-      <c r="R22" s="26">
+      <c r="R22" s="24">
         <f>(N22-N21)*$C$21</f>
         <v>5</v>
       </c>
-      <c r="S22" s="26">
+      <c r="S22" s="24">
         <f>(N22-N21+H22)*$C$21</f>
         <v>35</v>
       </c>
@@ -2764,19 +2806,19 @@
         <f>N20-(H23-1)/2</f>
         <v>24.5</v>
       </c>
-      <c r="P23" s="26">
+      <c r="P23" s="24">
         <f>(L23-L22)*$C$22</f>
         <v>10</v>
       </c>
-      <c r="Q23" s="26">
+      <c r="Q23" s="24">
         <f>(L23-L22+F23)*$C$22</f>
         <v>90</v>
       </c>
-      <c r="R23" s="26">
+      <c r="R23" s="24">
         <f>(N23-N22)*$C$22</f>
         <v>10</v>
       </c>
-      <c r="S23" s="26">
+      <c r="S23" s="24">
         <f>(N23-N22+H23)*$C$22</f>
         <v>50</v>
       </c>
@@ -2844,19 +2886,19 @@
         <f>N20-(H24-1)/2</f>
         <v>24.75</v>
       </c>
-      <c r="P24" s="26">
+      <c r="P24" s="24">
         <f>(L24-L23)*$C$23</f>
         <v>10</v>
       </c>
-      <c r="Q24" s="26">
+      <c r="Q24" s="24">
         <f>(L24-L23+F24)*$C$23</f>
         <v>90</v>
       </c>
-      <c r="R24" s="26">
+      <c r="R24" s="24">
         <f>(N24-N23)*$C$23</f>
         <v>10</v>
       </c>
-      <c r="S24" s="26">
+      <c r="S24" s="24">
         <f>(N24-N23+H24)*$C$23</f>
         <v>70</v>
       </c>
@@ -2896,19 +2938,19 @@
       <c r="O26" t="s">
         <v>83</v>
       </c>
-      <c r="P26" s="27">
+      <c r="P26" s="25">
         <f>($F$24-1)/2 *$C$24</f>
         <v>40</v>
       </c>
-      <c r="R26" s="27"/>
-      <c r="S26" s="27"/>
+      <c r="Q26" s="25">
+        <f>($H$24-1)/2 *$C$24</f>
+        <v>20</v>
+      </c>
+      <c r="R26" s="25"/>
+      <c r="S26" s="25"/>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27" s="19"/>
-      <c r="P27" s="27">
-        <f>($H$24-1)/2 *$C$24</f>
-        <v>20</v>
-      </c>
       <c r="U27" t="s">
         <v>74</v>
       </c>
@@ -2962,12 +3004,12 @@
       <c r="M31" s="20"/>
       <c r="N31" s="20"/>
       <c r="O31" s="21"/>
-      <c r="P31" s="21" t="s">
+      <c r="P31" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="Q31" s="21"/>
-      <c r="R31" s="21"/>
-      <c r="S31" s="21"/>
+      <c r="Q31" s="28"/>
+      <c r="R31" s="28"/>
+      <c r="S31" s="28"/>
       <c r="T31" s="14"/>
       <c r="U31" s="14"/>
       <c r="V31" s="14" t="s">
@@ -3021,7 +3063,19 @@
       <c r="N32" s="18">
         <v>25</v>
       </c>
-      <c r="O32" s="24"/>
+      <c r="O32" s="22"/>
+      <c r="P32" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>85</v>
+      </c>
+      <c r="R32" t="s">
+        <v>86</v>
+      </c>
+      <c r="S32" t="s">
+        <v>87</v>
+      </c>
       <c r="U32" t="s">
         <v>62</v>
       </c>
@@ -3086,19 +3140,19 @@
         <f>N32-(H33-1)/2</f>
         <v>23</v>
       </c>
-      <c r="P33" s="26">
+      <c r="P33" s="24">
         <f>L33*$C$32</f>
         <v>45</v>
       </c>
-      <c r="Q33" s="26">
+      <c r="Q33" s="24">
         <f>(L33+F33)*$C$32</f>
         <v>125</v>
       </c>
-      <c r="R33" s="26">
+      <c r="R33" s="24">
         <f>N33*$C$32</f>
         <v>57.5</v>
       </c>
-      <c r="S33" s="26">
+      <c r="S33" s="24">
         <f>(N33+H33)*$C$32</f>
         <v>70</v>
       </c>
@@ -3166,19 +3220,19 @@
         <f>N32-(H34-1)/2</f>
         <v>23.5</v>
       </c>
-      <c r="P34" s="26">
+      <c r="P34" s="24">
         <f>(L34-L33)*$C$33</f>
         <v>2.5</v>
       </c>
-      <c r="Q34" s="26">
+      <c r="Q34" s="24">
         <f>(L34-L33+F34)*$C$33</f>
         <v>82.5</v>
       </c>
-      <c r="R34" s="26">
+      <c r="R34" s="24">
         <f>(N34-N33)*$C$33</f>
         <v>2.5</v>
       </c>
-      <c r="S34" s="26">
+      <c r="S34" s="24">
         <f>(N34-N33+H34)*$C$33</f>
         <v>22.5</v>
       </c>
@@ -3246,19 +3300,19 @@
         <f>N32-(H35-1)/2</f>
         <v>24</v>
       </c>
-      <c r="P35" s="26">
+      <c r="P35" s="24">
         <f>(L35-L34)*$C$34</f>
         <v>5</v>
       </c>
-      <c r="Q35" s="26">
+      <c r="Q35" s="24">
         <f>(L35-L34+F35)*$C$34</f>
         <v>85</v>
       </c>
-      <c r="R35" s="26">
+      <c r="R35" s="24">
         <f>(N35-N34)*$C$34</f>
         <v>5</v>
       </c>
-      <c r="S35" s="26">
+      <c r="S35" s="24">
         <f>(N35-N34+H35)*$C$34</f>
         <v>35</v>
       </c>
@@ -3326,19 +3380,19 @@
         <f>N32-(H36-1)/2</f>
         <v>24.5</v>
       </c>
-      <c r="P36" s="26">
+      <c r="P36" s="24">
         <f>(L36-L35)*$C$35</f>
         <v>10</v>
       </c>
-      <c r="Q36" s="26">
+      <c r="Q36" s="24">
         <f>(L36-L35+F36)*$C$35</f>
         <v>90</v>
       </c>
-      <c r="R36" s="26">
+      <c r="R36" s="24">
         <f>(N36-N35)*$C$35</f>
         <v>10</v>
       </c>
-      <c r="S36" s="26">
+      <c r="S36" s="24">
         <f>(N36-N35+H36)*$C$35</f>
         <v>50</v>
       </c>
@@ -3405,19 +3459,19 @@
         <f>N32-(H37-1)/2</f>
         <v>24.75</v>
       </c>
-      <c r="P37" s="26">
+      <c r="P37" s="24">
         <f>(L37-L36)*$C$36</f>
         <v>10</v>
       </c>
-      <c r="Q37" s="26">
+      <c r="Q37" s="24">
         <f>(L37-L36+F37)*$C$36</f>
         <v>90</v>
       </c>
-      <c r="R37" s="26">
+      <c r="R37" s="24">
         <f>(N37-N36)*$C$36</f>
         <v>10</v>
       </c>
-      <c r="S37" s="26">
+      <c r="S37" s="24">
         <f>(N37-N36+H37)*$C$36</f>
         <v>70</v>
       </c>
@@ -3453,18 +3507,18 @@
       <c r="O39" t="s">
         <v>83</v>
       </c>
-      <c r="P39" s="27">
+      <c r="P39" s="25">
         <f>($F$37-1)/2 *$C$37</f>
         <v>40</v>
       </c>
-      <c r="R39" s="27"/>
-      <c r="S39" s="27"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="P40" s="27">
+      <c r="Q39" s="25">
         <f>($H$37-1)/2 *$C$37</f>
         <v>20</v>
       </c>
+      <c r="R39" s="25"/>
+      <c r="S39" s="25"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.3">
       <c r="U40" t="s">
         <v>74</v>
       </c>
@@ -3490,11 +3544,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="P31:S31"/>
     <mergeCell ref="K8:N8"/>
     <mergeCell ref="E8:I8"/>
     <mergeCell ref="E19:I19"/>
     <mergeCell ref="K19:N19"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="P19:S19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>

--- a/LUMA/tools/RefinementGuide.xlsx
+++ b/LUMA/tools/RefinementGuide.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17127"/>
-  <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (CFDTM)\0. Work\3. LBM\C++ Projects\LUMA\LUMA\tools\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="14316" yWindow="2220" windowWidth="24840" windowHeight="17964" activeTab="1"/>
+    <workbookView xWindow="14310" yWindow="2220" windowWidth="24840" windowHeight="15600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -31,7 +26,7 @@
     <author>jonathan sanchez muñoz</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0">
+    <comment ref="B3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -61,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="87">
   <si>
     <t>Computational domain size according with L</t>
   </si>
@@ -289,9 +284,6 @@
   </si>
   <si>
     <t>Level</t>
-  </si>
-  <si>
-    <t>#Levels</t>
   </si>
   <si>
     <t>D</t>
@@ -330,7 +322,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000%"/>
   </numFmts>
@@ -597,7 +589,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -636,6 +628,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -647,116 +642,116 @@
     </xf>
   </cellXfs>
   <cellStyles count="110">
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="88" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="90" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="92" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="94" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="96" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="98" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="100" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="102" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="104" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="106" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="108" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="94" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="96" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="98" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="100" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="102" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="104" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="106" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="108" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="109" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1166,14 +1161,14 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>105784</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>23309</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>437478</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>68132</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>68133</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1495,52 +1490,52 @@
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" style="3"/>
-    <col min="3" max="3" width="18.44140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" style="3" customWidth="1"/>
-    <col min="5" max="6" width="10.77734375" style="3"/>
+    <col min="1" max="1" width="20.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="3"/>
+    <col min="3" max="3" width="18.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" style="3" customWidth="1"/>
+    <col min="5" max="6" width="10.7109375" style="3"/>
     <col min="7" max="7" width="19" style="3" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="20.44140625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="26.109375" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="10.77734375" style="3"/>
+    <col min="8" max="8" width="15.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="26.140625" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="10.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+    </row>
+    <row r="3" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -1552,7 +1547,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -1563,7 +1558,7 @@
       <c r="C4" s="8"/>
       <c r="D4" s="10"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -1574,7 +1569,7 @@
       <c r="C5" s="8"/>
       <c r="D5" s="10"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -1585,7 +1580,7 @@
       <c r="C6" s="8"/>
       <c r="D6" s="10"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -1594,7 +1589,7 @@
       </c>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -1606,7 +1601,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -1631,7 +1626,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
@@ -1657,7 +1652,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
@@ -1683,7 +1678,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
@@ -1709,7 +1704,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
@@ -1735,7 +1730,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
@@ -1761,7 +1756,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
@@ -1787,7 +1782,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
@@ -1813,7 +1808,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="6:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="6:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="G21" s="3" t="s">
         <v>15</v>
       </c>
@@ -1827,7 +1822,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="6:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="6:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F22" s="3" t="s">
         <v>26</v>
       </c>
@@ -1848,7 +1843,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="6:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="6:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F23" s="3" t="s">
         <v>27</v>
       </c>
@@ -1869,7 +1864,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="24" spans="6:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="6:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F24" s="3" t="s">
         <v>28</v>
       </c>
@@ -1890,7 +1885,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="6:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="6:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F25" s="3" t="s">
         <v>29</v>
       </c>
@@ -1911,7 +1906,7 @@
         <v>42.5</v>
       </c>
     </row>
-    <row r="26" spans="6:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="6:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F26" s="3" t="s">
         <v>30</v>
       </c>
@@ -1932,7 +1927,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="6:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="6:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F27" s="3" t="s">
         <v>32</v>
       </c>
@@ -1953,7 +1948,7 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="28" spans="6:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="6:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F28" s="3" t="s">
         <v>31</v>
       </c>
@@ -1974,7 +1969,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="6:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="6:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F29" s="3" t="s">
         <v>31</v>
       </c>
@@ -2013,78 +2008,275 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:AA40"/>
+  <dimension ref="A1:AA67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.28515625" customWidth="1"/>
     <col min="6" max="6" width="5" customWidth="1"/>
-    <col min="7" max="7" width="3.77734375" customWidth="1"/>
-    <col min="8" max="8" width="4.77734375" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" customWidth="1"/>
-    <col min="10" max="11" width="5.109375" customWidth="1"/>
+    <col min="7" max="7" width="3.7109375" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" customWidth="1"/>
+    <col min="10" max="11" width="5.140625" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
     <col min="13" max="13" width="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8" customWidth="1"/>
-    <col min="15" max="15" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8" customWidth="1"/>
-    <col min="18" max="18" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8" customWidth="1"/>
-    <col min="21" max="21" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="J4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="1" spans="1:27" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1" s="19">
+        <v>1</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="D1" s="14"/>
+      <c r="E1" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="X1" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y1" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z1" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA1" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A2" s="19"/>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="18">
+        <v>64</v>
+      </c>
+      <c r="E2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="18">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" s="18">
+        <v>20</v>
+      </c>
+      <c r="I2" s="13"/>
+      <c r="K2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="18">
+        <v>10</v>
+      </c>
+      <c r="M2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" s="18">
+        <v>10</v>
+      </c>
+      <c r="O2" s="22"/>
+      <c r="U2" t="s">
+        <v>62</v>
+      </c>
+      <c r="V2">
+        <f>F2*H2*C2^2</f>
+        <v>1638400</v>
+      </c>
+      <c r="W2">
+        <f>C2^2*(F2*H2-F7*H7)</f>
+        <v>1638400</v>
+      </c>
+      <c r="X2" s="16">
+        <f>(F2*H2-F7*H7)/(F2*H2)</f>
+        <v>1</v>
+      </c>
+      <c r="Y2" s="15">
+        <f>W2/W10</f>
+        <v>100</v>
+      </c>
+      <c r="Z2">
+        <f>W2</f>
+        <v>1638400</v>
+      </c>
+      <c r="AA2" s="15">
+        <f>Z2/$Z$2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A3" s="19"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="X3" s="16"/>
+      <c r="Y3" s="15"/>
+      <c r="AA3" s="15"/>
+    </row>
+    <row r="4" spans="1:27" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A4" s="19"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="22"/>
+      <c r="O4" t="s">
+        <v>82</v>
+      </c>
+      <c r="P4" s="25">
+        <f>(F2-1)/2 *C2</f>
+        <v>608</v>
+      </c>
+      <c r="Q4" s="25">
+        <f>(H2-1)/2 *C2</f>
+        <v>608</v>
+      </c>
+      <c r="X4" s="16"/>
+      <c r="Y4" s="15"/>
+      <c r="AA4" s="15"/>
+    </row>
+    <row r="5" spans="1:27" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A5" s="19"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="22"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="X5" s="16"/>
+      <c r="Y5" s="15"/>
+      <c r="AA5" s="15"/>
+    </row>
+    <row r="6" spans="1:27" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A6" s="19"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="22"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="X6" s="16"/>
+      <c r="Y6" s="15"/>
+      <c r="AA6" s="15"/>
+    </row>
+    <row r="8" spans="1:27" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>75</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D8" s="14"/>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
       <c r="J8" s="14"/>
-      <c r="K8" s="27" t="s">
+      <c r="K8" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
       <c r="T8" s="14"/>
       <c r="U8" s="14"/>
       <c r="V8" s="14" t="s">
@@ -2094,1464 +2286,2049 @@
         <v>73</v>
       </c>
       <c r="X8" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y8" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="Y8" s="14" t="s">
+      <c r="Z8" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="Z8" s="14" t="s">
+      <c r="AA8" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="AA8" s="14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:27" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="19"/>
       <c r="B9" t="s">
         <v>42</v>
       </c>
       <c r="C9" s="18">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
         <v>68</v>
       </c>
       <c r="F9" s="18">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G9" t="s">
         <v>69</v>
       </c>
       <c r="H9" s="18">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="I9" s="13"/>
       <c r="K9" t="s">
         <v>48</v>
       </c>
       <c r="L9" s="18">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M9" t="s">
         <v>49</v>
       </c>
       <c r="N9" s="18">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="O9" s="22"/>
       <c r="P9" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q9" t="s">
         <v>84</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>85</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>86</v>
-      </c>
-      <c r="S9" t="s">
-        <v>87</v>
       </c>
       <c r="U9" t="s">
         <v>62</v>
       </c>
       <c r="V9">
         <f>F9*H9*C9^2</f>
-        <v>250000</v>
+        <v>409600</v>
       </c>
       <c r="W9">
         <f>C9^2*(F9*H9-F10*H10)</f>
-        <v>247600</v>
+        <v>405504</v>
       </c>
       <c r="X9" s="16">
         <f>(F9*H9-F10*H10)/(F9*H9)</f>
-        <v>0.99039999999999995</v>
+        <v>0.99</v>
       </c>
       <c r="Y9" s="15">
-        <f>W9/W15</f>
-        <v>0.88051209103840677</v>
+        <f>W9/W13</f>
+        <v>0.96116504854368934</v>
       </c>
       <c r="Z9">
         <f>W9</f>
-        <v>247600</v>
+        <v>405504</v>
       </c>
       <c r="AA9" s="15">
-        <f>Z9/$Z$15</f>
-        <v>0.5551569506726457</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+        <f>Z9/$Z$13</f>
+        <v>0.92523364485981308</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="19"/>
       <c r="B10" t="s">
         <v>43</v>
       </c>
       <c r="C10">
         <f>C9*2</f>
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="E10" t="s">
         <v>33</v>
       </c>
-      <c r="F10">
-        <f>F11*2</f>
-        <v>8</v>
+      <c r="F10" s="18">
+        <v>2</v>
       </c>
       <c r="G10" t="s">
         <v>34</v>
       </c>
-      <c r="H10">
-        <f>H11+1</f>
-        <v>3</v>
-      </c>
+      <c r="H10" s="18">
+        <v>2</v>
+      </c>
+      <c r="I10" s="13"/>
       <c r="K10" t="s">
         <v>71</v>
       </c>
       <c r="L10">
-        <f>L9-(H10-1)/2</f>
-        <v>19</v>
+        <f>L9-F10/2</f>
+        <v>9</v>
       </c>
       <c r="M10" t="s">
         <v>70</v>
       </c>
       <c r="N10">
-        <f>N9-(H10-1)/2</f>
-        <v>24</v>
+        <f>N9-H10/2</f>
+        <v>9</v>
       </c>
       <c r="P10" s="24">
         <f>L10*$C$9</f>
-        <v>190</v>
+        <v>288</v>
       </c>
       <c r="Q10" s="24">
         <f>(L10+F10)*$C$9</f>
-        <v>270</v>
+        <v>352</v>
       </c>
       <c r="R10" s="24">
         <f>N10*$C$9</f>
-        <v>240</v>
+        <v>288</v>
       </c>
       <c r="S10" s="24">
         <f>(N10+H10)*$C$9</f>
-        <v>270</v>
+        <v>352</v>
       </c>
       <c r="U10" t="s">
         <v>63</v>
       </c>
       <c r="V10">
         <f>F10*H10*C10^2</f>
-        <v>9600</v>
+        <v>16384</v>
       </c>
       <c r="W10">
-        <f>C10^2*(F10*H10-F11*H11)</f>
-        <v>6400</v>
+        <f>V10</f>
+        <v>16384</v>
       </c>
       <c r="X10" s="16">
-        <f>(F10*H10-F11*H11)/(F9*H9)</f>
-        <v>6.4000000000000003E-3</v>
+        <f>(F10*H10)/(F9*H9)</f>
+        <v>0.01</v>
       </c>
       <c r="Y10" s="15">
-        <f>W10/W15</f>
-        <v>2.2759601706970129E-2</v>
+        <f>W10/W13</f>
+        <v>3.8834951456310676E-2</v>
       </c>
       <c r="Z10">
         <f>W10*2</f>
-        <v>12800</v>
+        <v>32768</v>
       </c>
       <c r="AA10" s="15">
-        <f t="shared" ref="AA10:AA12" si="0">Z10/$Z$15</f>
-        <v>2.8699551569506727E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+        <f>Z10/$Z$13</f>
+        <v>7.476635514018691E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="19"/>
-      <c r="B11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11">
-        <f>C10*2</f>
-        <v>40</v>
-      </c>
-      <c r="E11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11">
-        <f>F12*2</f>
+      <c r="Q11" s="24"/>
+      <c r="Y11" s="15"/>
+    </row>
+    <row r="12" spans="1:27" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A12" s="19"/>
+      <c r="O12" t="s">
+        <v>82</v>
+      </c>
+      <c r="P12" s="25">
+        <f>(F10-1)/2 *$C$10</f>
+        <v>32</v>
+      </c>
+      <c r="Q12" s="25">
+        <f>(H10-1)/2 *$C$10</f>
+        <v>32</v>
+      </c>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+    </row>
+    <row r="13" spans="1:27" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A13" s="19"/>
+      <c r="U13" t="s">
+        <v>74</v>
+      </c>
+      <c r="W13">
+        <f>SUM(W9:W10)</f>
+        <v>421888</v>
+      </c>
+      <c r="X13" s="17">
+        <f>SUM(X9:X10)</f>
+        <v>1</v>
+      </c>
+      <c r="Y13" s="17">
+        <f>SUM(Y9:Y10)</f>
+        <v>1</v>
+      </c>
+      <c r="Z13">
+        <f>SUM(Z9:Z10)</f>
+        <v>438272</v>
+      </c>
+      <c r="AA13" s="15">
+        <f>SUM(AA9:AA10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A17" s="19">
+        <v>3</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="W17" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="X17" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y17" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z17" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA17" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A18" s="19"/>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="18">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="18">
+        <v>20</v>
+      </c>
+      <c r="G18" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" s="18">
+        <v>20</v>
+      </c>
+      <c r="I18" s="13"/>
+      <c r="K18" t="s">
+        <v>48</v>
+      </c>
+      <c r="L18" s="18">
+        <v>10</v>
+      </c>
+      <c r="M18" t="s">
+        <v>49</v>
+      </c>
+      <c r="N18" s="18">
+        <v>10</v>
+      </c>
+      <c r="O18" s="22"/>
+      <c r="P18" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>84</v>
+      </c>
+      <c r="R18" t="s">
+        <v>85</v>
+      </c>
+      <c r="S18" t="s">
+        <v>86</v>
+      </c>
+      <c r="U18" t="s">
+        <v>62</v>
+      </c>
+      <c r="V18">
+        <f>F18*H18*C18^2</f>
+        <v>102400</v>
+      </c>
+      <c r="W18">
+        <f>C18^2*(F18*H18-F19*H19)</f>
+        <v>98304</v>
+      </c>
+      <c r="X18" s="16">
+        <f>(F18*H18-F19*H19)/(F18*H18)</f>
+        <v>0.96</v>
+      </c>
+      <c r="Y18" s="15">
+        <f>W18/W23</f>
+        <v>0.77419354838709675</v>
+      </c>
+      <c r="Z18">
+        <f>W18</f>
+        <v>98304</v>
+      </c>
+      <c r="AA18" s="15">
+        <f t="shared" ref="AA18:AA19" si="0">Z18/$Z$23</f>
+        <v>0.52173913043478259</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A19" s="19"/>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19">
+        <f>C18*2</f>
+        <v>32</v>
+      </c>
+      <c r="E19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19">
         <v>4</v>
       </c>
-      <c r="G11" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11">
-        <v>2</v>
-      </c>
-      <c r="K11" t="s">
-        <v>50</v>
-      </c>
-      <c r="L11">
-        <f>L9-(H11-1)/2</f>
-        <v>19.5</v>
-      </c>
-      <c r="M11" t="s">
-        <v>51</v>
-      </c>
-      <c r="N11">
-        <f>N9-(H11-1)/2</f>
-        <v>24.5</v>
-      </c>
-      <c r="P11" s="24">
-        <f>(L11-L10)*$C$10</f>
-        <v>10</v>
-      </c>
-      <c r="Q11" s="24">
-        <f>(L11-L10+F11)*$C$10</f>
-        <v>90</v>
-      </c>
-      <c r="R11" s="24">
-        <f>(N11-N10)*$C$10</f>
-        <v>10</v>
-      </c>
-      <c r="S11" s="24">
-        <f>(N11-N10+H11)*$C$10</f>
-        <v>50</v>
-      </c>
-      <c r="U11" t="s">
-        <v>64</v>
-      </c>
-      <c r="V11">
-        <f>F11*H11*C11^2</f>
-        <v>12800</v>
-      </c>
-      <c r="W11">
-        <f>C11^2*(H11*F11-F12*H12)</f>
-        <v>8000</v>
-      </c>
-      <c r="X11" s="16">
-        <f>(F11*H11-F12*H12)/(F9*H9)</f>
-        <v>2E-3</v>
-      </c>
-      <c r="Y11" s="15">
-        <f>W11/W15</f>
-        <v>2.8449502133712661E-2</v>
-      </c>
-      <c r="Z11">
-        <f>W11*4</f>
-        <v>32000</v>
-      </c>
-      <c r="AA11" s="15">
+      <c r="G19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19">
+        <v>4</v>
+      </c>
+      <c r="K19" t="s">
+        <v>71</v>
+      </c>
+      <c r="L19">
+        <f>L18-F19/2</f>
+        <v>8</v>
+      </c>
+      <c r="M19" t="s">
+        <v>70</v>
+      </c>
+      <c r="N19">
+        <f>N18-H19/2</f>
+        <v>8</v>
+      </c>
+      <c r="P19" s="24">
+        <f>L19*$C$18</f>
+        <v>128</v>
+      </c>
+      <c r="Q19" s="24">
+        <f>(L19+F19)*$C$18</f>
+        <v>192</v>
+      </c>
+      <c r="R19" s="24">
+        <f>N19*$C$18</f>
+        <v>128</v>
+      </c>
+      <c r="S19" s="24">
+        <f>(N19+H19)*$C$18</f>
+        <v>192</v>
+      </c>
+      <c r="U19" t="s">
+        <v>63</v>
+      </c>
+      <c r="V19">
+        <f>F19*H19*C19^2</f>
+        <v>16384</v>
+      </c>
+      <c r="W19">
+        <f>C19^2*(F19*H19-F20*H20)</f>
+        <v>12288</v>
+      </c>
+      <c r="X19" s="16">
+        <f>(F19*H19-F20*H20)/(F18*H18)</f>
+        <v>0.03</v>
+      </c>
+      <c r="Y19" s="15">
+        <f>W19/W23</f>
+        <v>9.6774193548387094E-2</v>
+      </c>
+      <c r="Z19">
+        <f>W19*2</f>
+        <v>24576</v>
+      </c>
+      <c r="AA19" s="15">
         <f t="shared" si="0"/>
-        <v>7.1748878923766815E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A12" s="19"/>
-      <c r="B12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12">
-        <f>C11*2</f>
-        <v>80</v>
-      </c>
-      <c r="E12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="18">
-        <v>2</v>
-      </c>
-      <c r="G12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="18">
-        <v>1.5</v>
-      </c>
-      <c r="I12" s="13"/>
-      <c r="K12" t="s">
-        <v>52</v>
-      </c>
-      <c r="L12">
-        <f>L9-(H12-1)/2</f>
-        <v>19.75</v>
-      </c>
-      <c r="M12" t="s">
-        <v>53</v>
-      </c>
-      <c r="N12">
-        <f>N9-(H12-1)/2</f>
-        <v>24.75</v>
-      </c>
-      <c r="P12" s="24">
-        <f>(L12-L11)*$C$11</f>
-        <v>10</v>
-      </c>
-      <c r="Q12" s="24">
-        <f>(L12-L11+F12)*$C$11</f>
-        <v>90</v>
-      </c>
-      <c r="R12" s="24">
-        <f>(N12-N11)*$C$11</f>
-        <v>10</v>
-      </c>
-      <c r="S12" s="24">
-        <f>(N12-N11+H12)*$C$11</f>
-        <v>70</v>
-      </c>
-      <c r="U12" t="s">
-        <v>65</v>
-      </c>
-      <c r="V12">
-        <f>F12*H12*C12^2</f>
-        <v>19200</v>
-      </c>
-      <c r="W12">
-        <f>V12</f>
-        <v>19200</v>
-      </c>
-      <c r="X12" s="16">
-        <f>(F12*H12)/(F9*H9)</f>
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="Y12" s="15">
-        <f>W12/W15</f>
-        <v>6.8278805120910391E-2</v>
-      </c>
-      <c r="Z12">
-        <f>W12*8</f>
-        <v>153600</v>
-      </c>
-      <c r="AA12" s="15">
-        <f t="shared" si="0"/>
-        <v>0.34439461883408073</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A13" s="19"/>
-      <c r="Y13" s="15"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A14" s="19"/>
-      <c r="O14" t="s">
-        <v>83</v>
-      </c>
-      <c r="P14" s="25">
-        <f>($F$12-1)/2 *$C$12</f>
-        <v>40</v>
-      </c>
-      <c r="Q14" s="25">
-        <f>($H$12-1)/2 *$C$12</f>
-        <v>20</v>
-      </c>
-      <c r="R14" s="25"/>
-      <c r="S14" s="25"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A15" s="19"/>
-      <c r="U15" t="s">
-        <v>74</v>
-      </c>
-      <c r="W15">
-        <f>SUM(W9:W12)</f>
-        <v>281200</v>
-      </c>
-      <c r="X15" s="17">
-        <f>SUM(X9:X12)</f>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="Y15" s="17">
-        <f>SUM(Y9:Y12)</f>
-        <v>1</v>
-      </c>
-      <c r="Z15">
-        <f>SUM(Z9:Z12)</f>
-        <v>446000</v>
-      </c>
-      <c r="AA15" s="15">
-        <f>SUM(AA9:AA12)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A16" s="19"/>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A17" s="19"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A18" s="19"/>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A19" s="19">
-        <v>5</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="28"/>
-      <c r="S19" s="28"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="W19" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="X19" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y19" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z19" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA19" s="14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+        <v>0.13043478260869565</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="19"/>
       <c r="B20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="18">
-        <v>5</v>
+        <v>44</v>
+      </c>
+      <c r="C20">
+        <f>C19*2</f>
+        <v>64</v>
       </c>
       <c r="E20" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F20" s="18">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="G20" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="H20" s="18">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="I20" s="13"/>
       <c r="K20" t="s">
-        <v>48</v>
-      </c>
-      <c r="L20" s="18">
-        <v>20</v>
+        <v>50</v>
+      </c>
+      <c r="L20">
+        <f>L18-F20/2</f>
+        <v>9</v>
       </c>
       <c r="M20" t="s">
-        <v>49</v>
-      </c>
-      <c r="N20" s="18">
-        <v>25</v>
-      </c>
-      <c r="O20" s="22"/>
-      <c r="P20" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>85</v>
-      </c>
-      <c r="R20" t="s">
-        <v>86</v>
-      </c>
-      <c r="S20" t="s">
-        <v>87</v>
+        <v>51</v>
+      </c>
+      <c r="N20">
+        <f>N18-H20/2</f>
+        <v>9</v>
+      </c>
+      <c r="P20" s="24">
+        <f>(L20-L19)*$C$19</f>
+        <v>32</v>
+      </c>
+      <c r="Q20" s="24">
+        <f>(L20-L19+F20)*$C$19</f>
+        <v>96</v>
+      </c>
+      <c r="R20" s="24">
+        <f>(N20-N19)*$C$19</f>
+        <v>32</v>
+      </c>
+      <c r="S20" s="24">
+        <f>(N20-N19+H20)*$C$19</f>
+        <v>96</v>
       </c>
       <c r="U20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="V20">
         <f>F20*H20*C20^2</f>
-        <v>62500</v>
+        <v>16384</v>
       </c>
       <c r="W20">
-        <f>C20^2*(F20*H20-F21*H21)</f>
-        <v>60900</v>
+        <f>V20</f>
+        <v>16384</v>
       </c>
       <c r="X20" s="16">
-        <f>(F20*H20-F21*H21)/(F20*H20)</f>
-        <v>0.97440000000000004</v>
+        <f>(F20*H20)/(F18*H18)</f>
+        <v>0.01</v>
       </c>
       <c r="Y20" s="15">
-        <f>W20/W27</f>
-        <v>0.61827411167512691</v>
+        <f>W20/W23</f>
+        <v>0.12903225806451613</v>
       </c>
       <c r="Z20">
-        <f>W20</f>
-        <v>60900</v>
+        <f>W20*4</f>
+        <v>65536</v>
       </c>
       <c r="AA20" s="15">
-        <f>Z20/$Z$27</f>
-        <v>0.13077088254240929</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+        <f>Z20/$Z$23</f>
+        <v>0.34782608695652173</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
-      <c r="B21" t="s">
+      <c r="Y21" s="15"/>
+    </row>
+    <row r="22" spans="1:27" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A22" s="19"/>
+      <c r="O22" t="s">
+        <v>82</v>
+      </c>
+      <c r="P22" s="25">
+        <f>($F$20-1)/2 *$C$20</f>
+        <v>32</v>
+      </c>
+      <c r="Q22" s="25">
+        <f>($H$20-1)/2 *$C$20</f>
+        <v>32</v>
+      </c>
+      <c r="R22" s="25"/>
+      <c r="S22" s="25"/>
+    </row>
+    <row r="23" spans="1:27" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A23" s="19"/>
+      <c r="U23" t="s">
+        <v>74</v>
+      </c>
+      <c r="W23">
+        <f>SUM(W18:W20)</f>
+        <v>126976</v>
+      </c>
+      <c r="X23" s="17">
+        <f>SUM(X18:X20)</f>
+        <v>1</v>
+      </c>
+      <c r="Y23" s="17">
+        <f>SUM(Y18:Y20)</f>
+        <v>1</v>
+      </c>
+      <c r="Z23">
+        <f>SUM(Z18:Z20)</f>
+        <v>188416</v>
+      </c>
+      <c r="AA23" s="15">
+        <f>SUM(AA18:AA20)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A27" s="19">
+        <v>4</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="29"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="14"/>
+      <c r="V27" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="W27" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="X27" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y27" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z27" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA27" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A28" s="19"/>
+      <c r="B28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="18">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28" s="18">
+        <v>20</v>
+      </c>
+      <c r="G28" t="s">
+        <v>69</v>
+      </c>
+      <c r="H28" s="18">
+        <v>20</v>
+      </c>
+      <c r="I28" s="13"/>
+      <c r="K28" t="s">
+        <v>48</v>
+      </c>
+      <c r="L28" s="18">
+        <v>10</v>
+      </c>
+      <c r="M28" t="s">
+        <v>49</v>
+      </c>
+      <c r="N28" s="18">
+        <v>10</v>
+      </c>
+      <c r="O28" s="22"/>
+      <c r="P28" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>84</v>
+      </c>
+      <c r="R28" t="s">
+        <v>85</v>
+      </c>
+      <c r="S28" t="s">
+        <v>86</v>
+      </c>
+      <c r="U28" t="s">
+        <v>62</v>
+      </c>
+      <c r="V28">
+        <f>F28*H28*C28^2</f>
+        <v>25600</v>
+      </c>
+      <c r="W28">
+        <f>C28^2*(F28*H28-F29*H29)</f>
+        <v>21504</v>
+      </c>
+      <c r="X28" s="16">
+        <f>(F28*H28-F29*H29)/(F28*H28)</f>
+        <v>0.84</v>
+      </c>
+      <c r="Y28" s="15">
+        <f>W28/W34</f>
+        <v>0.34426229508196721</v>
+      </c>
+      <c r="Z28">
+        <f>W28</f>
+        <v>21504</v>
+      </c>
+      <c r="AA28" s="15">
+        <f>Z28/$Z$34</f>
+        <v>9.5022624434389136E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A29" s="19"/>
+      <c r="B29" t="s">
         <v>43</v>
       </c>
-      <c r="C21">
-        <f>C20*2</f>
+      <c r="C29">
+        <f>C28*2</f>
+        <v>16</v>
+      </c>
+      <c r="E29" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29">
+        <v>8</v>
+      </c>
+      <c r="G29" t="s">
+        <v>34</v>
+      </c>
+      <c r="H29">
+        <v>8</v>
+      </c>
+      <c r="K29" t="s">
+        <v>71</v>
+      </c>
+      <c r="L29">
+        <f>L28-F29/2</f>
+        <v>6</v>
+      </c>
+      <c r="M29" t="s">
+        <v>70</v>
+      </c>
+      <c r="N29">
+        <f>N28-H29/2</f>
+        <v>6</v>
+      </c>
+      <c r="P29" s="24">
+        <f>L29*$C$28</f>
+        <v>48</v>
+      </c>
+      <c r="Q29" s="24">
+        <f>(L29+F29)*$C$28</f>
+        <v>112</v>
+      </c>
+      <c r="R29" s="24">
+        <f>N29*$C$28</f>
+        <v>48</v>
+      </c>
+      <c r="S29" s="24">
+        <f>(N29+H29)*$C$28</f>
+        <v>112</v>
+      </c>
+      <c r="U29" t="s">
+        <v>63</v>
+      </c>
+      <c r="V29">
+        <f>F29*H29*C29^2</f>
+        <v>16384</v>
+      </c>
+      <c r="W29">
+        <f>C29^2*(F29*H29-F30*H30)</f>
+        <v>12288</v>
+      </c>
+      <c r="X29" s="16">
+        <f>(F29*H29-F30*H30)/(F28*H28)</f>
+        <v>0.12</v>
+      </c>
+      <c r="Y29" s="15">
+        <f>W29/W34</f>
+        <v>0.19672131147540983</v>
+      </c>
+      <c r="Z29">
+        <f>W29*2</f>
+        <v>24576</v>
+      </c>
+      <c r="AA29" s="15">
+        <f t="shared" ref="AA29:AA31" si="1">Z29/$Z$34</f>
+        <v>0.10859728506787331</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A30" s="19"/>
+      <c r="B30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30">
+        <f>C29*2</f>
+        <v>32</v>
+      </c>
+      <c r="E30" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+      <c r="G30" t="s">
+        <v>36</v>
+      </c>
+      <c r="H30">
+        <v>4</v>
+      </c>
+      <c r="K30" t="s">
+        <v>50</v>
+      </c>
+      <c r="L30">
+        <f>L28-F30/2</f>
+        <v>8</v>
+      </c>
+      <c r="M30" t="s">
+        <v>51</v>
+      </c>
+      <c r="N30">
+        <f>N28-H30/2</f>
+        <v>8</v>
+      </c>
+      <c r="P30" s="24">
+        <f>(L30-L29)*$C$29</f>
+        <v>32</v>
+      </c>
+      <c r="Q30" s="24">
+        <f>(L30-L29+F30)*$C$29</f>
+        <v>96</v>
+      </c>
+      <c r="R30" s="24">
+        <f>(N30-N29)*$C$29</f>
+        <v>32</v>
+      </c>
+      <c r="S30" s="24">
+        <f>(N30-N29+H30)*$C$29</f>
+        <v>96</v>
+      </c>
+      <c r="U30" t="s">
+        <v>64</v>
+      </c>
+      <c r="V30">
+        <f>F30*H30*C30^2</f>
+        <v>16384</v>
+      </c>
+      <c r="W30">
+        <f>C30^2*(H30*F30-F31*H31)</f>
+        <v>12288</v>
+      </c>
+      <c r="X30" s="16">
+        <f>(F30*H30-F31*H31)/(F28*H28)</f>
+        <v>0.03</v>
+      </c>
+      <c r="Y30" s="15">
+        <f>W30/W34</f>
+        <v>0.19672131147540983</v>
+      </c>
+      <c r="Z30">
+        <f>W30*4</f>
+        <v>49152</v>
+      </c>
+      <c r="AA30" s="15">
+        <f t="shared" si="1"/>
+        <v>0.21719457013574661</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A31" s="19"/>
+      <c r="B31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31">
+        <f>C30*2</f>
+        <v>64</v>
+      </c>
+      <c r="E31" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="18">
+        <v>2</v>
+      </c>
+      <c r="G31" t="s">
+        <v>38</v>
+      </c>
+      <c r="H31" s="18">
+        <v>2</v>
+      </c>
+      <c r="I31" s="13"/>
+      <c r="K31" t="s">
+        <v>52</v>
+      </c>
+      <c r="L31">
+        <f>L28-F31/2</f>
+        <v>9</v>
+      </c>
+      <c r="M31" t="s">
+        <v>53</v>
+      </c>
+      <c r="N31">
+        <f>N28-H31/2</f>
+        <v>9</v>
+      </c>
+      <c r="P31" s="24">
+        <f>(L31-L30)*$C$30</f>
+        <v>32</v>
+      </c>
+      <c r="Q31" s="24">
+        <f>(L31-L30+F31)*$C$30</f>
+        <v>96</v>
+      </c>
+      <c r="R31" s="24">
+        <f>(N31-N30)*$C$30</f>
+        <v>32</v>
+      </c>
+      <c r="S31" s="24">
+        <f>(N31-N30+H31)*$C$30</f>
+        <v>96</v>
+      </c>
+      <c r="U31" t="s">
+        <v>65</v>
+      </c>
+      <c r="V31">
+        <f>F31*H31*C31^2</f>
+        <v>16384</v>
+      </c>
+      <c r="W31">
+        <f>V31</f>
+        <v>16384</v>
+      </c>
+      <c r="X31" s="16">
+        <f>(F31*H31)/(F28*H28)</f>
+        <v>0.01</v>
+      </c>
+      <c r="Y31" s="15">
+        <f>W31/W34</f>
+        <v>0.26229508196721313</v>
+      </c>
+      <c r="Z31">
+        <f>W31*8</f>
+        <v>131072</v>
+      </c>
+      <c r="AA31" s="15">
+        <f t="shared" si="1"/>
+        <v>0.579185520361991</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A32" s="19"/>
+      <c r="Y32" s="15"/>
+    </row>
+    <row r="33" spans="1:27" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A33" s="19"/>
+      <c r="O33" t="s">
+        <v>82</v>
+      </c>
+      <c r="P33" s="25">
+        <f>($F$31-1)/2 *$C$31</f>
+        <v>32</v>
+      </c>
+      <c r="Q33" s="25">
+        <f>($H$31-1)/2 *$C$31</f>
+        <v>32</v>
+      </c>
+      <c r="R33" s="25"/>
+      <c r="S33" s="25"/>
+    </row>
+    <row r="34" spans="1:27" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A34" s="19"/>
+      <c r="U34" t="s">
+        <v>74</v>
+      </c>
+      <c r="W34">
+        <f>SUM(W28:W31)</f>
+        <v>62464</v>
+      </c>
+      <c r="X34" s="17">
+        <f>SUM(X28:X31)</f>
+        <v>1</v>
+      </c>
+      <c r="Y34" s="17">
+        <f>SUM(Y28:Y31)</f>
+        <v>1</v>
+      </c>
+      <c r="Z34">
+        <f>SUM(Z28:Z31)</f>
+        <v>226304</v>
+      </c>
+      <c r="AA34" s="15">
+        <f>SUM(AA28:AA31)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A35" s="19"/>
+    </row>
+    <row r="36" spans="1:27" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A36" s="19"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+    </row>
+    <row r="37" spans="1:27" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A37" s="19"/>
+    </row>
+    <row r="38" spans="1:27" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A38" s="19">
+        <v>5</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" s="14"/>
+      <c r="E38" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="L38" s="28"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="28"/>
+      <c r="O38" s="21"/>
+      <c r="P38" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q38" s="29"/>
+      <c r="R38" s="29"/>
+      <c r="S38" s="29"/>
+      <c r="T38" s="14"/>
+      <c r="U38" s="14"/>
+      <c r="V38" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="W38" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="X38" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y38" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z38" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA38" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A39" s="19"/>
+      <c r="B39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="18">
+        <v>4</v>
+      </c>
+      <c r="E39" t="s">
+        <v>68</v>
+      </c>
+      <c r="F39" s="18">
+        <v>20</v>
+      </c>
+      <c r="G39" t="s">
+        <v>69</v>
+      </c>
+      <c r="H39" s="18">
+        <v>20</v>
+      </c>
+      <c r="I39" s="13"/>
+      <c r="K39" t="s">
+        <v>48</v>
+      </c>
+      <c r="L39" s="18">
         <v>10</v>
       </c>
-      <c r="E21" t="s">
+      <c r="M39" t="s">
+        <v>49</v>
+      </c>
+      <c r="N39" s="18">
+        <v>10</v>
+      </c>
+      <c r="O39" s="22"/>
+      <c r="P39" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>84</v>
+      </c>
+      <c r="R39" t="s">
+        <v>85</v>
+      </c>
+      <c r="S39" t="s">
+        <v>86</v>
+      </c>
+      <c r="U39" t="s">
+        <v>62</v>
+      </c>
+      <c r="V39">
+        <f>F39*H39*C39^2</f>
+        <v>6400</v>
+      </c>
+      <c r="W39">
+        <f>C39^2*(F39*H39-F40*H40)</f>
+        <v>5376</v>
+      </c>
+      <c r="X39" s="16">
+        <f>(F39*H39-F40*H40)/(F39*H39)</f>
+        <v>0.84</v>
+      </c>
+      <c r="Y39" s="15">
+        <f>W39/W46</f>
+        <v>0.13125000000000001</v>
+      </c>
+      <c r="Z39">
+        <f>W39</f>
+        <v>5376</v>
+      </c>
+      <c r="AA39" s="15">
+        <f>Z39/$Z$46</f>
+        <v>1.3788575180564675E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A40" s="19"/>
+      <c r="B40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40">
+        <f>C39*2</f>
+        <v>8</v>
+      </c>
+      <c r="E40" t="s">
         <v>33</v>
       </c>
-      <c r="F21">
-        <f>F22*2</f>
+      <c r="F40">
+        <v>8</v>
+      </c>
+      <c r="G40" t="s">
+        <v>34</v>
+      </c>
+      <c r="H40">
+        <v>8</v>
+      </c>
+      <c r="K40" t="s">
+        <v>71</v>
+      </c>
+      <c r="L40">
+        <f>L39-F40/2</f>
+        <v>6</v>
+      </c>
+      <c r="M40" t="s">
+        <v>70</v>
+      </c>
+      <c r="N40">
+        <f>N39-H40/2</f>
+        <v>6</v>
+      </c>
+      <c r="O40" s="23"/>
+      <c r="P40" s="24">
+        <f>L40*$C$39</f>
+        <v>24</v>
+      </c>
+      <c r="Q40" s="24">
+        <f>(L40+F40)*$C$39</f>
+        <v>56</v>
+      </c>
+      <c r="R40" s="24">
+        <f>N40*$C$39</f>
+        <v>24</v>
+      </c>
+      <c r="S40" s="24">
+        <f>(N40+H40)*$C$39</f>
+        <v>56</v>
+      </c>
+      <c r="U40" t="s">
+        <v>63</v>
+      </c>
+      <c r="V40">
+        <f>F40*H40*C40^2</f>
+        <v>4096</v>
+      </c>
+      <c r="W40">
+        <f>C40^2*(F40*H40-F41*H41)</f>
+        <v>1792</v>
+      </c>
+      <c r="X40" s="16">
+        <f>(F40*H40-F41*H41)/(F39*H39)</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Y40" s="15">
+        <f>W40/W46</f>
+        <v>4.3749999999999997E-2</v>
+      </c>
+      <c r="Z40">
+        <f>W40*2</f>
+        <v>3584</v>
+      </c>
+      <c r="AA40" s="15">
+        <f t="shared" ref="AA40:AA43" si="2">Z40/$Z$46</f>
+        <v>9.1923834537097834E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A41" s="19"/>
+      <c r="B41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41">
+        <f>C40*2</f>
         <v>16</v>
       </c>
-      <c r="G21" t="s">
+      <c r="E41" t="s">
+        <v>35</v>
+      </c>
+      <c r="F41">
+        <v>6</v>
+      </c>
+      <c r="G41" t="s">
+        <v>36</v>
+      </c>
+      <c r="H41">
+        <v>6</v>
+      </c>
+      <c r="K41" t="s">
+        <v>50</v>
+      </c>
+      <c r="L41">
+        <f>L39-F41/2</f>
+        <v>7</v>
+      </c>
+      <c r="M41" t="s">
+        <v>51</v>
+      </c>
+      <c r="N41">
+        <f>N39-H41/2</f>
+        <v>7</v>
+      </c>
+      <c r="P41" s="24">
+        <f>(L41-L40)*$C$40</f>
+        <v>8</v>
+      </c>
+      <c r="Q41" s="24">
+        <f>(L41-L40+F41)*$C$40</f>
+        <v>56</v>
+      </c>
+      <c r="R41" s="24">
+        <f>(N41-N40)*$C$40</f>
+        <v>8</v>
+      </c>
+      <c r="S41" s="24">
+        <f>(N41-N40+H41)*$C$40</f>
+        <v>56</v>
+      </c>
+      <c r="U41" t="s">
+        <v>64</v>
+      </c>
+      <c r="V41">
+        <f>F41*H41*C41^2</f>
+        <v>9216</v>
+      </c>
+      <c r="W41">
+        <f>C41^2*(H41*F41-H42*F42)</f>
+        <v>5120</v>
+      </c>
+      <c r="X41" s="16">
+        <f>(F41*H41-F42*H42)/(F39*H39)</f>
+        <v>0.05</v>
+      </c>
+      <c r="Y41" s="15">
+        <f>W41/W46</f>
+        <v>0.125</v>
+      </c>
+      <c r="Z41">
+        <f>W41*4</f>
+        <v>20480</v>
+      </c>
+      <c r="AA41" s="15">
+        <f t="shared" si="2"/>
+        <v>5.2527905449770193E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A42" s="19"/>
+      <c r="B42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42">
+        <f>C41*2</f>
+        <v>32</v>
+      </c>
+      <c r="E42" t="s">
+        <v>37</v>
+      </c>
+      <c r="F42">
+        <v>4</v>
+      </c>
+      <c r="G42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H42" s="18">
+        <v>4</v>
+      </c>
+      <c r="I42" s="13"/>
+      <c r="K42" t="s">
+        <v>52</v>
+      </c>
+      <c r="L42">
+        <f>L39-F42/2</f>
+        <v>8</v>
+      </c>
+      <c r="M42" t="s">
+        <v>53</v>
+      </c>
+      <c r="N42">
+        <f>N39-H42/2</f>
+        <v>8</v>
+      </c>
+      <c r="P42" s="24">
+        <f>(L42-L41)*$C$41</f>
+        <v>16</v>
+      </c>
+      <c r="Q42" s="24">
+        <f>(L42-L41+F42)*$C$41</f>
+        <v>80</v>
+      </c>
+      <c r="R42" s="24">
+        <f>(N42-N41)*$C$41</f>
+        <v>16</v>
+      </c>
+      <c r="S42" s="24">
+        <f>(N42-N41+H42)*$C$41</f>
+        <v>80</v>
+      </c>
+      <c r="U42" t="s">
+        <v>65</v>
+      </c>
+      <c r="V42">
+        <f>F42*H42*C42^2</f>
+        <v>16384</v>
+      </c>
+      <c r="W42">
+        <f>C42^2*(H42*F42-H43*F43)</f>
+        <v>12288</v>
+      </c>
+      <c r="X42" s="16">
+        <f>(F42*H42-F43*H43)/(F39*H39)</f>
+        <v>0.03</v>
+      </c>
+      <c r="Y42" s="15">
+        <f>W42/W46</f>
+        <v>0.3</v>
+      </c>
+      <c r="Z42">
+        <f>W42*8</f>
+        <v>98304</v>
+      </c>
+      <c r="AA42" s="15">
+        <f t="shared" si="2"/>
+        <v>0.25213394615889689</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A43" s="19"/>
+      <c r="B43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43">
+        <f>C42*2</f>
+        <v>64</v>
+      </c>
+      <c r="E43" t="s">
+        <v>39</v>
+      </c>
+      <c r="F43" s="18">
+        <v>2</v>
+      </c>
+      <c r="G43" t="s">
+        <v>40</v>
+      </c>
+      <c r="H43" s="18">
+        <v>2</v>
+      </c>
+      <c r="I43" s="13"/>
+      <c r="K43" t="s">
+        <v>54</v>
+      </c>
+      <c r="L43">
+        <f>L39-F43/2</f>
+        <v>9</v>
+      </c>
+      <c r="M43" t="s">
+        <v>55</v>
+      </c>
+      <c r="N43">
+        <f>N39-H43/2</f>
+        <v>9</v>
+      </c>
+      <c r="P43" s="24">
+        <f>(L43-L42)*$C$42</f>
+        <v>32</v>
+      </c>
+      <c r="Q43" s="24">
+        <f>(L43-L42+F43)*$C$42</f>
+        <v>96</v>
+      </c>
+      <c r="R43" s="24">
+        <f>(N43-N42)*$C$42</f>
+        <v>32</v>
+      </c>
+      <c r="S43" s="24">
+        <f>(N43-N42+H43)*$C$42</f>
+        <v>96</v>
+      </c>
+      <c r="U43" t="s">
+        <v>66</v>
+      </c>
+      <c r="V43">
+        <f>F43*H43*C43^2</f>
+        <v>16384</v>
+      </c>
+      <c r="W43">
+        <f>V43</f>
+        <v>16384</v>
+      </c>
+      <c r="X43" s="16">
+        <f>(F43*H43)/(F39*H39)</f>
+        <v>0.01</v>
+      </c>
+      <c r="Y43" s="15">
+        <f>W43/W46</f>
+        <v>0.4</v>
+      </c>
+      <c r="Z43">
+        <f>W43*16</f>
+        <v>262144</v>
+      </c>
+      <c r="AA43" s="15">
+        <f t="shared" si="2"/>
+        <v>0.67235718975705838</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A44" s="19"/>
+    </row>
+    <row r="45" spans="1:27" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A45" s="19"/>
+      <c r="O45" t="s">
+        <v>82</v>
+      </c>
+      <c r="P45" s="25">
+        <f>($F$43-1)/2 *$C$43</f>
+        <v>32</v>
+      </c>
+      <c r="Q45" s="25">
+        <f>($H$43-1)/2 *$C$43</f>
+        <v>32</v>
+      </c>
+      <c r="R45" s="25"/>
+      <c r="S45" s="25"/>
+    </row>
+    <row r="46" spans="1:27" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A46" s="19"/>
+      <c r="U46" t="s">
+        <v>74</v>
+      </c>
+      <c r="W46">
+        <f>SUM(W39:W43)</f>
+        <v>40960</v>
+      </c>
+      <c r="X46" s="17">
+        <f>SUM(X39:X43)</f>
+        <v>1</v>
+      </c>
+      <c r="Y46" s="17">
+        <f>SUM(Y39:Y43)</f>
+        <v>1</v>
+      </c>
+      <c r="Z46">
+        <f>SUM(Z39:Z43)</f>
+        <v>389888</v>
+      </c>
+      <c r="AA46" s="15">
+        <f>SUM(AA39:AA43)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A47" s="19"/>
+    </row>
+    <row r="50" spans="1:27" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A50" s="19">
+        <v>6</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D50" s="14"/>
+      <c r="E50" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="L50" s="20"/>
+      <c r="M50" s="20"/>
+      <c r="N50" s="20"/>
+      <c r="O50" s="21"/>
+      <c r="P50" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q50" s="29"/>
+      <c r="R50" s="29"/>
+      <c r="S50" s="29"/>
+      <c r="T50" s="14"/>
+      <c r="U50" s="14"/>
+      <c r="V50" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="W50" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="X50" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y50" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z50" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA50" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51" s="18">
+        <v>2</v>
+      </c>
+      <c r="E51" t="s">
+        <v>68</v>
+      </c>
+      <c r="F51" s="18">
+        <v>20</v>
+      </c>
+      <c r="G51" t="s">
+        <v>69</v>
+      </c>
+      <c r="H51" s="18">
+        <v>20</v>
+      </c>
+      <c r="I51" s="13"/>
+      <c r="K51" t="s">
+        <v>48</v>
+      </c>
+      <c r="L51" s="18">
+        <v>10</v>
+      </c>
+      <c r="M51" t="s">
+        <v>49</v>
+      </c>
+      <c r="N51" s="18">
+        <v>10</v>
+      </c>
+      <c r="O51" s="22"/>
+      <c r="P51" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>84</v>
+      </c>
+      <c r="R51" t="s">
+        <v>85</v>
+      </c>
+      <c r="S51" t="s">
+        <v>86</v>
+      </c>
+      <c r="U51" t="s">
+        <v>62</v>
+      </c>
+      <c r="V51">
+        <f>F51*H51*C51^2</f>
+        <v>1600</v>
+      </c>
+      <c r="W51">
+        <f>C51^2*(F51*H51-F52*H52)</f>
+        <v>1200</v>
+      </c>
+      <c r="X51" s="16">
+        <f>(F51*H51-F52*H52)/(F51*H51)</f>
+        <v>0.75</v>
+      </c>
+      <c r="Y51" s="15">
+        <f t="shared" ref="Y51:Y56" si="3">W51/$W$59</f>
+        <v>3.2119914346895075E-2</v>
+      </c>
+      <c r="Z51">
+        <f>W51</f>
+        <v>1200</v>
+      </c>
+      <c r="AA51" s="15">
+        <f t="shared" ref="AA51:AA55" si="4">Z51/$Z$59</f>
+        <v>1.5556615710107652E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>43</v>
+      </c>
+      <c r="C52">
+        <f>C51*2</f>
+        <v>4</v>
+      </c>
+      <c r="E52" t="s">
+        <v>33</v>
+      </c>
+      <c r="F52">
+        <v>10</v>
+      </c>
+      <c r="G52" t="s">
         <v>34</v>
       </c>
-      <c r="H21">
-        <f>H22+1</f>
+      <c r="H52">
+        <v>10</v>
+      </c>
+      <c r="K52" t="s">
+        <v>71</v>
+      </c>
+      <c r="L52">
+        <f>L51-F52/2</f>
+        <v>5</v>
+      </c>
+      <c r="M52" t="s">
+        <v>70</v>
+      </c>
+      <c r="N52">
+        <f>N51-H52/2</f>
+        <v>5</v>
+      </c>
+      <c r="P52" s="24">
+        <f>L52*$C$51</f>
+        <v>10</v>
+      </c>
+      <c r="Q52" s="24">
+        <f>(L52+F52)*$C$51</f>
+        <v>30</v>
+      </c>
+      <c r="R52" s="24">
+        <f>N52*$C$51</f>
+        <v>10</v>
+      </c>
+      <c r="S52" s="24">
+        <f>(N52+H52)*$C$51</f>
+        <v>30</v>
+      </c>
+      <c r="U52" t="s">
+        <v>63</v>
+      </c>
+      <c r="V52">
+        <f>F52*H52*C52^2</f>
+        <v>1600</v>
+      </c>
+      <c r="W52">
+        <f>C52^2*(F52*H52-F53*H53)</f>
+        <v>576</v>
+      </c>
+      <c r="X52" s="16">
+        <f>(F52*H52-F53*H53)/(F51*H51)</f>
+        <v>0.09</v>
+      </c>
+      <c r="Y52" s="15">
+        <f t="shared" si="3"/>
+        <v>1.5417558886509636E-2</v>
+      </c>
+      <c r="Z52">
+        <f>W52*2</f>
+        <v>1152</v>
+      </c>
+      <c r="AA52" s="15">
+        <f t="shared" si="4"/>
+        <v>1.4934351081703347E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>44</v>
+      </c>
+      <c r="C53">
+        <f>C52*2</f>
+        <v>8</v>
+      </c>
+      <c r="E53" t="s">
+        <v>35</v>
+      </c>
+      <c r="F53">
+        <v>8</v>
+      </c>
+      <c r="G53" t="s">
+        <v>36</v>
+      </c>
+      <c r="H53">
+        <v>8</v>
+      </c>
+      <c r="K53" t="s">
+        <v>50</v>
+      </c>
+      <c r="L53">
+        <f>L51-F53/2</f>
+        <v>6</v>
+      </c>
+      <c r="M53" t="s">
+        <v>51</v>
+      </c>
+      <c r="N53">
+        <f>N51-H53/2</f>
+        <v>6</v>
+      </c>
+      <c r="P53" s="24">
+        <f>(L53-L52)*$C$52</f>
         <v>4</v>
       </c>
-      <c r="K21" t="s">
-        <v>71</v>
-      </c>
-      <c r="L21">
-        <f>L20-(H21-1)/2</f>
-        <v>18.5</v>
-      </c>
-      <c r="M21" t="s">
-        <v>70</v>
-      </c>
-      <c r="N21">
-        <f>N20-(H21-1)/2</f>
-        <v>23.5</v>
-      </c>
-      <c r="O21" s="23"/>
-      <c r="P21" s="24">
-        <f>L21*$C$20</f>
-        <v>92.5</v>
-      </c>
-      <c r="Q21" s="24">
-        <f>(L21+F21)*$C$20</f>
-        <v>172.5</v>
-      </c>
-      <c r="R21" s="24">
-        <f>N21*$C$20</f>
-        <v>117.5</v>
-      </c>
-      <c r="S21" s="24">
-        <f>(N21+H21)*$C$20</f>
-        <v>137.5</v>
-      </c>
-      <c r="U21" t="s">
-        <v>63</v>
-      </c>
-      <c r="V21">
-        <f>F21*H21*C21^2</f>
-        <v>6400</v>
-      </c>
-      <c r="W21">
-        <f>C21^2*(F21*H21-F22*H22)</f>
-        <v>4000</v>
-      </c>
-      <c r="X21" s="16">
-        <f>(F21*H21-F22*H22)/(F20*H20)</f>
-        <v>1.6E-2</v>
-      </c>
-      <c r="Y21" s="15">
-        <f>W21/W27</f>
-        <v>4.060913705583756E-2</v>
-      </c>
-      <c r="Z21">
-        <f>W21*2</f>
-        <v>8000</v>
-      </c>
-      <c r="AA21" s="15">
-        <f t="shared" ref="AA21:AA24" si="1">Z21/$Z$27</f>
-        <v>1.7178441056474127E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A22" s="19"/>
-      <c r="B22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22">
-        <f>C21*2</f>
-        <v>20</v>
-      </c>
-      <c r="E22" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22">
-        <f>F23*2</f>
+      <c r="Q53" s="24">
+        <f>(L53-L52+F53)*$C$52</f>
+        <v>36</v>
+      </c>
+      <c r="R53" s="24">
+        <f>(N53-N52)*$C$52</f>
+        <v>4</v>
+      </c>
+      <c r="S53" s="24">
+        <f>(N53-N52+H53)*$C$52</f>
+        <v>36</v>
+      </c>
+      <c r="U53" t="s">
+        <v>64</v>
+      </c>
+      <c r="V53">
+        <f>F53*H53*C53^2</f>
+        <v>4096</v>
+      </c>
+      <c r="W53">
+        <f>C53^2*(F53*H53-F54*H54)</f>
+        <v>1792</v>
+      </c>
+      <c r="X53" s="16">
+        <f>(F53*H53-F54*H54)/(F51*H51)</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Y53" s="15">
+        <f t="shared" si="3"/>
+        <v>4.796573875802998E-2</v>
+      </c>
+      <c r="Z53">
+        <f>W53*4</f>
+        <v>7168</v>
+      </c>
+      <c r="AA53" s="15">
+        <f t="shared" si="4"/>
+        <v>9.2924851175043045E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>45</v>
+      </c>
+      <c r="C54">
+        <f>C53*2</f>
+        <v>16</v>
+      </c>
+      <c r="E54" t="s">
+        <v>37</v>
+      </c>
+      <c r="F54">
+        <v>6</v>
+      </c>
+      <c r="G54" t="s">
+        <v>38</v>
+      </c>
+      <c r="H54">
+        <v>6</v>
+      </c>
+      <c r="K54" t="s">
+        <v>52</v>
+      </c>
+      <c r="L54">
+        <f>L51-F54/2</f>
+        <v>7</v>
+      </c>
+      <c r="M54" t="s">
+        <v>53</v>
+      </c>
+      <c r="N54">
+        <f>N51-H54/2</f>
+        <v>7</v>
+      </c>
+      <c r="P54" s="24">
+        <f>(L54-L53)*$C$53</f>
         <v>8</v>
       </c>
-      <c r="G22" t="s">
-        <v>36</v>
-      </c>
-      <c r="H22">
-        <f>H23+1</f>
-        <v>3</v>
-      </c>
-      <c r="K22" t="s">
-        <v>50</v>
-      </c>
-      <c r="L22">
-        <f>L20-(H22-1)/2</f>
-        <v>19</v>
-      </c>
-      <c r="M22" t="s">
-        <v>51</v>
-      </c>
-      <c r="N22">
-        <f>N20-(H22-1)/2</f>
-        <v>24</v>
-      </c>
-      <c r="P22" s="24">
-        <f>(L22-L21)*$C$21</f>
-        <v>5</v>
-      </c>
-      <c r="Q22" s="24">
-        <f>(L22-L21+F22)*$C$21</f>
-        <v>85</v>
-      </c>
-      <c r="R22" s="24">
-        <f>(N22-N21)*$C$21</f>
-        <v>5</v>
-      </c>
-      <c r="S22" s="24">
-        <f>(N22-N21+H22)*$C$21</f>
-        <v>35</v>
-      </c>
-      <c r="U22" t="s">
+      <c r="Q54" s="24">
+        <f>(L54-L53+F54)*$C$53</f>
+        <v>56</v>
+      </c>
+      <c r="R54" s="24">
+        <f>(N54-N53)*$C$53</f>
+        <v>8</v>
+      </c>
+      <c r="S54" s="24">
+        <f>(N54-N53+H54)*$C$53</f>
+        <v>56</v>
+      </c>
+      <c r="U54" t="s">
+        <v>65</v>
+      </c>
+      <c r="V54">
+        <f t="shared" ref="V54:V56" si="5">F54*H54*C54^2</f>
+        <v>9216</v>
+      </c>
+      <c r="W54">
+        <f>C54^2*(F54*H54-F55*H55)</f>
+        <v>5120</v>
+      </c>
+      <c r="X54" s="16">
+        <f>(F54*H54-F55*H55)/(F51*H51)</f>
+        <v>0.05</v>
+      </c>
+      <c r="Y54" s="15">
+        <f t="shared" si="3"/>
+        <v>0.13704496788008566</v>
+      </c>
+      <c r="Z54">
+        <f>W54*8</f>
+        <v>40960</v>
+      </c>
+      <c r="AA54" s="15">
+        <f t="shared" si="4"/>
+        <v>5.3099914957167454E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>46</v>
+      </c>
+      <c r="C55">
+        <f>C54*2</f>
+        <v>32</v>
+      </c>
+      <c r="E55" t="s">
+        <v>39</v>
+      </c>
+      <c r="F55">
+        <v>4</v>
+      </c>
+      <c r="G55" t="s">
+        <v>40</v>
+      </c>
+      <c r="H55" s="18">
+        <v>4</v>
+      </c>
+      <c r="I55" s="13"/>
+      <c r="K55" t="s">
+        <v>54</v>
+      </c>
+      <c r="L55">
+        <f>L51-F55/2</f>
+        <v>8</v>
+      </c>
+      <c r="M55" t="s">
+        <v>55</v>
+      </c>
+      <c r="N55">
+        <f>N51-H55/2</f>
+        <v>8</v>
+      </c>
+      <c r="P55" s="24">
+        <f>(L55-L54)*$C$54</f>
+        <v>16</v>
+      </c>
+      <c r="Q55" s="24">
+        <f>(L55-L54+F55)*$C$54</f>
+        <v>80</v>
+      </c>
+      <c r="R55" s="24">
+        <f>(N55-N54)*$C$54</f>
+        <v>16</v>
+      </c>
+      <c r="S55" s="24">
+        <f>(N55-N54+H55)*$C$54</f>
+        <v>80</v>
+      </c>
+      <c r="U55" t="s">
+        <v>66</v>
+      </c>
+      <c r="V55">
+        <f t="shared" si="5"/>
+        <v>16384</v>
+      </c>
+      <c r="W55">
+        <f>C55^2*(F55*H55-F56*H56)</f>
+        <v>12288</v>
+      </c>
+      <c r="X55" s="16">
+        <f>(F55*H55-F56*H56)/(F51*H51)</f>
+        <v>0.03</v>
+      </c>
+      <c r="Y55" s="15">
+        <f t="shared" si="3"/>
+        <v>0.32890792291220555</v>
+      </c>
+      <c r="Z55">
+        <f>W55*16</f>
+        <v>196608</v>
+      </c>
+      <c r="AA55" s="15">
+        <f t="shared" si="4"/>
+        <v>0.25487959179440378</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>47</v>
+      </c>
+      <c r="C56">
+        <f>C55*2</f>
         <v>64</v>
       </c>
-      <c r="V22">
-        <f>F22*H22*C22^2</f>
-        <v>9600</v>
-      </c>
-      <c r="W22">
-        <f>C22^2*(H22*F22-H23*F23)</f>
-        <v>6400</v>
-      </c>
-      <c r="X22" s="16">
-        <f>(F22*H22-F23*H23)/(F20*H20)</f>
-        <v>6.4000000000000003E-3</v>
-      </c>
-      <c r="Y22" s="15">
-        <f>W22/W27</f>
-        <v>6.4974619289340105E-2</v>
-      </c>
-      <c r="Z22">
-        <f>W22*4</f>
-        <v>25600</v>
-      </c>
-      <c r="AA22" s="15">
-        <f t="shared" si="1"/>
-        <v>5.4971011380717201E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A23" s="19"/>
-      <c r="B23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23">
-        <f>C22*2</f>
-        <v>40</v>
-      </c>
-      <c r="E23" t="s">
-        <v>37</v>
-      </c>
-      <c r="F23">
-        <f>F24*2</f>
-        <v>4</v>
-      </c>
-      <c r="G23" t="s">
-        <v>38</v>
-      </c>
-      <c r="H23" s="18">
+      <c r="E56" t="s">
+        <v>41</v>
+      </c>
+      <c r="F56" s="18">
         <v>2</v>
       </c>
-      <c r="I23" s="13"/>
-      <c r="K23" t="s">
-        <v>52</v>
-      </c>
-      <c r="L23">
-        <f>L20-(H23-1)/2</f>
-        <v>19.5</v>
-      </c>
-      <c r="M23" t="s">
-        <v>53</v>
-      </c>
-      <c r="N23">
-        <f>N20-(H23-1)/2</f>
-        <v>24.5</v>
-      </c>
-      <c r="P23" s="24">
-        <f>(L23-L22)*$C$22</f>
-        <v>10</v>
-      </c>
-      <c r="Q23" s="24">
-        <f>(L23-L22+F23)*$C$22</f>
-        <v>90</v>
-      </c>
-      <c r="R23" s="24">
-        <f>(N23-N22)*$C$22</f>
-        <v>10</v>
-      </c>
-      <c r="S23" s="24">
-        <f>(N23-N22+H23)*$C$22</f>
-        <v>50</v>
-      </c>
-      <c r="U23" t="s">
-        <v>65</v>
-      </c>
-      <c r="V23">
-        <f>F23*H23*C23^2</f>
-        <v>12800</v>
-      </c>
-      <c r="W23">
-        <f>C23^2*(H23*F23-H24*F24)</f>
-        <v>8000</v>
-      </c>
-      <c r="X23" s="16">
-        <f>(F23*H23-F24*H24)/(F20*H20)</f>
-        <v>2E-3</v>
-      </c>
-      <c r="Y23" s="15">
-        <f>W23/W27</f>
-        <v>8.1218274111675121E-2</v>
-      </c>
-      <c r="Z23">
-        <f>W23*8</f>
-        <v>64000</v>
-      </c>
-      <c r="AA23" s="15">
-        <f t="shared" si="1"/>
-        <v>0.13742752845179301</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A24" s="19"/>
-      <c r="B24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24">
-        <f>C23*2</f>
-        <v>80</v>
-      </c>
-      <c r="E24" t="s">
-        <v>39</v>
-      </c>
-      <c r="F24" s="18">
+      <c r="G56" t="s">
+        <v>58</v>
+      </c>
+      <c r="H56" s="18">
         <v>2</v>
       </c>
-      <c r="G24" t="s">
-        <v>40</v>
-      </c>
-      <c r="H24" s="18">
-        <v>1.5</v>
-      </c>
-      <c r="I24" s="13"/>
-      <c r="K24" t="s">
-        <v>54</v>
-      </c>
-      <c r="L24">
-        <f>L20-(H24-1)/2</f>
-        <v>19.75</v>
-      </c>
-      <c r="M24" t="s">
-        <v>55</v>
-      </c>
-      <c r="N24">
-        <f>N20-(H24-1)/2</f>
-        <v>24.75</v>
-      </c>
-      <c r="P24" s="24">
-        <f>(L24-L23)*$C$23</f>
-        <v>10</v>
-      </c>
-      <c r="Q24" s="24">
-        <f>(L24-L23+F24)*$C$23</f>
-        <v>90</v>
-      </c>
-      <c r="R24" s="24">
-        <f>(N24-N23)*$C$23</f>
-        <v>10</v>
-      </c>
-      <c r="S24" s="24">
-        <f>(N24-N23+H24)*$C$23</f>
-        <v>70</v>
-      </c>
-      <c r="U24" t="s">
-        <v>66</v>
-      </c>
-      <c r="V24">
-        <f>F24*H24*C24^2</f>
-        <v>19200</v>
-      </c>
-      <c r="W24">
-        <f>V24</f>
-        <v>19200</v>
-      </c>
-      <c r="X24" s="16">
-        <f>(F24*H24)/(F20*H20)</f>
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="Y24" s="15">
-        <f>W24/W27</f>
-        <v>0.1949238578680203</v>
-      </c>
-      <c r="Z24">
-        <f>W24*16</f>
-        <v>307200</v>
-      </c>
-      <c r="AA24" s="15">
-        <f t="shared" si="1"/>
-        <v>0.65965213656860644</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A25" s="19"/>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A26" s="19"/>
-      <c r="O26" t="s">
-        <v>83</v>
-      </c>
-      <c r="P26" s="25">
-        <f>($F$24-1)/2 *$C$24</f>
-        <v>40</v>
-      </c>
-      <c r="Q26" s="25">
-        <f>($H$24-1)/2 *$C$24</f>
-        <v>20</v>
-      </c>
-      <c r="R26" s="25"/>
-      <c r="S26" s="25"/>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A27" s="19"/>
-      <c r="U27" t="s">
+      <c r="I56" s="13"/>
+      <c r="K56" t="s">
+        <v>56</v>
+      </c>
+      <c r="L56">
+        <f>L51-F56/2</f>
+        <v>9</v>
+      </c>
+      <c r="M56" t="s">
+        <v>57</v>
+      </c>
+      <c r="N56">
+        <f>N51-H56/2</f>
+        <v>9</v>
+      </c>
+      <c r="P56" s="24">
+        <f>(L56-L55)*$C$55</f>
+        <v>32</v>
+      </c>
+      <c r="Q56" s="24">
+        <f>(L56-L55+F56)*$C$55</f>
+        <v>96</v>
+      </c>
+      <c r="R56" s="24">
+        <f>(N56-N55)*$C$55</f>
+        <v>32</v>
+      </c>
+      <c r="S56" s="24">
+        <f>(N56-N55+H56)*$C$55</f>
+        <v>96</v>
+      </c>
+      <c r="U56" t="s">
+        <v>67</v>
+      </c>
+      <c r="V56">
+        <f t="shared" si="5"/>
+        <v>16384</v>
+      </c>
+      <c r="W56">
+        <f>V56</f>
+        <v>16384</v>
+      </c>
+      <c r="X56" s="16">
+        <f>(F56*H56)/(F51*H51)</f>
+        <v>0.01</v>
+      </c>
+      <c r="Y56" s="15">
+        <f t="shared" si="3"/>
+        <v>0.43854389721627407</v>
+      </c>
+      <c r="Z56">
+        <f>W56*32</f>
+        <v>524288</v>
+      </c>
+      <c r="AA56" s="15">
+        <f>Z56/$Z$59</f>
+        <v>0.67967891145174342</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="O58" t="s">
+        <v>82</v>
+      </c>
+      <c r="P58" s="25">
+        <f>($F$56-1)/2 *$C$56</f>
+        <v>32</v>
+      </c>
+      <c r="Q58" s="25">
+        <f>($H$56-1)/2 *$C$56</f>
+        <v>32</v>
+      </c>
+      <c r="R58" s="25"/>
+      <c r="S58" s="25"/>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="U59" t="s">
         <v>74</v>
       </c>
-      <c r="W27">
-        <f>SUM(W20:W24)</f>
-        <v>98500</v>
-      </c>
-      <c r="X27" s="17">
-        <f>SUM(X20:X24)</f>
+      <c r="W59">
+        <f>SUM(W51:W56)</f>
+        <v>37360</v>
+      </c>
+      <c r="X59" s="17">
+        <f>SUM(X51:X56)</f>
         <v>1</v>
       </c>
-      <c r="Y27" s="17">
-        <f>SUM(Y20:Y24)</f>
+      <c r="Y59" s="17">
+        <f>SUM(Y51:Y56)</f>
         <v>1</v>
       </c>
-      <c r="Z27">
-        <f>SUM(Z20:Z24)</f>
-        <v>465700</v>
-      </c>
-      <c r="AA27" s="15">
-        <f>SUM(AA20:AA24)</f>
+      <c r="Z59">
+        <f>SUM(Z51:Z56)</f>
+        <v>771376</v>
+      </c>
+      <c r="AA59" s="15">
+        <f>SUM(AA51:AA56)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A28" s="19"/>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A31" s="19">
-        <v>6</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="D31" s="14"/>
-      <c r="E31" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q31" s="28"/>
-      <c r="R31" s="28"/>
-      <c r="S31" s="28"/>
-      <c r="T31" s="14"/>
-      <c r="U31" s="14"/>
-      <c r="V31" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="W31" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="X31" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y31" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z31" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA31" s="14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" s="18">
-        <v>2.5</v>
-      </c>
-      <c r="E32" t="s">
-        <v>68</v>
-      </c>
-      <c r="F32" s="18">
-        <v>50</v>
-      </c>
-      <c r="G32" t="s">
-        <v>69</v>
-      </c>
-      <c r="H32" s="18">
-        <v>50</v>
-      </c>
-      <c r="I32" s="13"/>
-      <c r="K32" t="s">
-        <v>48</v>
-      </c>
-      <c r="L32" s="18">
-        <v>20</v>
-      </c>
-      <c r="M32" t="s">
-        <v>49</v>
-      </c>
-      <c r="N32" s="18">
-        <v>25</v>
-      </c>
-      <c r="O32" s="22"/>
-      <c r="P32" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>85</v>
-      </c>
-      <c r="R32" t="s">
-        <v>86</v>
-      </c>
-      <c r="S32" t="s">
-        <v>87</v>
-      </c>
-      <c r="U32" t="s">
-        <v>62</v>
-      </c>
-      <c r="V32">
-        <f>F32*H32*C32^2</f>
-        <v>15625</v>
-      </c>
-      <c r="W32">
-        <f>C32^2*(F32*H32-F33*H33)</f>
-        <v>14625</v>
-      </c>
-      <c r="X32" s="16">
-        <f>(F32*H32-F33*H33)/(F32*H32)</f>
-        <v>0.93600000000000005</v>
-      </c>
-      <c r="Y32" s="15">
-        <f t="shared" ref="Y32:Y37" si="2">W32/$W$40</f>
-        <v>0.26773455377574373</v>
-      </c>
-      <c r="Z32">
-        <f>W32</f>
-        <v>14625</v>
-      </c>
-      <c r="AA32" s="15">
-        <f t="shared" ref="AA32:AA36" si="3">Z32/$Z$40</f>
-        <v>1.7641205030005127E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33">
-        <f>C32*2</f>
-        <v>5</v>
-      </c>
-      <c r="E33" t="s">
-        <v>33</v>
-      </c>
-      <c r="F33">
-        <f>F34*2</f>
-        <v>32</v>
-      </c>
-      <c r="G33" t="s">
-        <v>34</v>
-      </c>
-      <c r="H33">
-        <f>H34+1</f>
-        <v>5</v>
-      </c>
-      <c r="K33" t="s">
-        <v>71</v>
-      </c>
-      <c r="L33">
-        <f>L32-(H33-1)/2</f>
-        <v>18</v>
-      </c>
-      <c r="M33" t="s">
-        <v>70</v>
-      </c>
-      <c r="N33">
-        <f>N32-(H33-1)/2</f>
-        <v>23</v>
-      </c>
-      <c r="P33" s="24">
-        <f>L33*$C$32</f>
-        <v>45</v>
-      </c>
-      <c r="Q33" s="24">
-        <f>(L33+F33)*$C$32</f>
-        <v>125</v>
-      </c>
-      <c r="R33" s="24">
-        <f>N33*$C$32</f>
-        <v>57.5</v>
-      </c>
-      <c r="S33" s="24">
-        <f>(N33+H33)*$C$32</f>
-        <v>70</v>
-      </c>
-      <c r="U33" t="s">
-        <v>63</v>
-      </c>
-      <c r="V33">
-        <f>F33*H33*C33^2</f>
-        <v>4000</v>
-      </c>
-      <c r="W33">
-        <f>C33^2*(F33*H33-F34*H34)</f>
-        <v>2400</v>
-      </c>
-      <c r="X33" s="16">
-        <f>(F33*H33-F34*H34)/(F32*H32)</f>
-        <v>3.8399999999999997E-2</v>
-      </c>
-      <c r="Y33" s="15">
-        <f t="shared" si="2"/>
-        <v>4.3935926773455376E-2</v>
-      </c>
-      <c r="Z33">
-        <f>W33*2</f>
-        <v>4800</v>
-      </c>
-      <c r="AA33" s="15">
-        <f t="shared" si="3"/>
-        <v>5.7899339585657855E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34">
-        <f>C33*2</f>
-        <v>10</v>
-      </c>
-      <c r="E34" t="s">
-        <v>35</v>
-      </c>
-      <c r="F34">
-        <f>F35*2</f>
-        <v>16</v>
-      </c>
-      <c r="G34" t="s">
-        <v>36</v>
-      </c>
-      <c r="H34">
-        <f>H35+1</f>
-        <v>4</v>
-      </c>
-      <c r="K34" t="s">
-        <v>50</v>
-      </c>
-      <c r="L34">
-        <f>L32-(H34-1)/2</f>
-        <v>18.5</v>
-      </c>
-      <c r="M34" t="s">
-        <v>51</v>
-      </c>
-      <c r="N34">
-        <f>N32-(H34-1)/2</f>
-        <v>23.5</v>
-      </c>
-      <c r="P34" s="24">
-        <f>(L34-L33)*$C$33</f>
-        <v>2.5</v>
-      </c>
-      <c r="Q34" s="24">
-        <f>(L34-L33+F34)*$C$33</f>
-        <v>82.5</v>
-      </c>
-      <c r="R34" s="24">
-        <f>(N34-N33)*$C$33</f>
-        <v>2.5</v>
-      </c>
-      <c r="S34" s="24">
-        <f>(N34-N33+H34)*$C$33</f>
-        <v>22.5</v>
-      </c>
-      <c r="U34" t="s">
-        <v>64</v>
-      </c>
-      <c r="V34">
-        <f>F34*H34*C34^2</f>
-        <v>6400</v>
-      </c>
-      <c r="W34">
-        <f>C34^2*(F34*H34-F35*H35)</f>
-        <v>4000</v>
-      </c>
-      <c r="X34" s="16">
-        <f>(F34*H34-F35*H35)/(F32*H32)</f>
-        <v>1.6E-2</v>
-      </c>
-      <c r="Y34" s="15">
-        <f t="shared" si="2"/>
-        <v>7.3226544622425629E-2</v>
-      </c>
-      <c r="Z34">
-        <f>W34*4</f>
-        <v>16000</v>
-      </c>
-      <c r="AA34" s="15">
-        <f t="shared" si="3"/>
-        <v>1.9299779861885951E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35">
-        <f>C34*2</f>
-        <v>20</v>
-      </c>
-      <c r="E35" t="s">
-        <v>37</v>
-      </c>
-      <c r="F35">
-        <f>F36*2</f>
-        <v>8</v>
-      </c>
-      <c r="G35" t="s">
-        <v>38</v>
-      </c>
-      <c r="H35">
-        <f>H36+1</f>
-        <v>3</v>
-      </c>
-      <c r="K35" t="s">
-        <v>52</v>
-      </c>
-      <c r="L35">
-        <f>L32-(H35-1)/2</f>
-        <v>19</v>
-      </c>
-      <c r="M35" t="s">
-        <v>53</v>
-      </c>
-      <c r="N35">
-        <f>N32-(H35-1)/2</f>
-        <v>24</v>
-      </c>
-      <c r="P35" s="24">
-        <f>(L35-L34)*$C$34</f>
-        <v>5</v>
-      </c>
-      <c r="Q35" s="24">
-        <f>(L35-L34+F35)*$C$34</f>
-        <v>85</v>
-      </c>
-      <c r="R35" s="24">
-        <f>(N35-N34)*$C$34</f>
-        <v>5</v>
-      </c>
-      <c r="S35" s="24">
-        <f>(N35-N34+H35)*$C$34</f>
-        <v>35</v>
-      </c>
-      <c r="U35" t="s">
-        <v>65</v>
-      </c>
-      <c r="V35">
-        <f t="shared" ref="V35:V37" si="4">F35*H35*C35^2</f>
-        <v>9600</v>
-      </c>
-      <c r="W35">
-        <f>C35^2*(F35*H35-F36*H36)</f>
-        <v>6400</v>
-      </c>
-      <c r="X35" s="16">
-        <f>(F35*H35-F36*H36)/(F32*H32)</f>
-        <v>6.4000000000000003E-3</v>
-      </c>
-      <c r="Y35" s="15">
-        <f t="shared" si="2"/>
-        <v>0.11716247139588101</v>
-      </c>
-      <c r="Z35">
-        <f>W35*8</f>
-        <v>51200</v>
-      </c>
-      <c r="AA35" s="15">
-        <f t="shared" si="3"/>
-        <v>6.1759295558035041E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36">
-        <f>C35*2</f>
-        <v>40</v>
-      </c>
-      <c r="E36" t="s">
-        <v>39</v>
-      </c>
-      <c r="F36">
-        <f>F37*2</f>
-        <v>4</v>
-      </c>
-      <c r="G36" t="s">
-        <v>40</v>
-      </c>
-      <c r="H36" s="18">
-        <v>2</v>
-      </c>
-      <c r="I36" s="13"/>
-      <c r="K36" t="s">
-        <v>54</v>
-      </c>
-      <c r="L36">
-        <f>L32-(H36-1)/2</f>
-        <v>19.5</v>
-      </c>
-      <c r="M36" t="s">
-        <v>55</v>
-      </c>
-      <c r="N36">
-        <f>N32-(H36-1)/2</f>
-        <v>24.5</v>
-      </c>
-      <c r="P36" s="24">
-        <f>(L36-L35)*$C$35</f>
-        <v>10</v>
-      </c>
-      <c r="Q36" s="24">
-        <f>(L36-L35+F36)*$C$35</f>
-        <v>90</v>
-      </c>
-      <c r="R36" s="24">
-        <f>(N36-N35)*$C$35</f>
-        <v>10</v>
-      </c>
-      <c r="S36" s="24">
-        <f>(N36-N35+H36)*$C$35</f>
-        <v>50</v>
-      </c>
-      <c r="U36" t="s">
-        <v>66</v>
-      </c>
-      <c r="V36">
-        <f t="shared" si="4"/>
-        <v>12800</v>
-      </c>
-      <c r="W36">
-        <f>C36^2*(F36*H36-F37*H37)</f>
-        <v>8000</v>
-      </c>
-      <c r="X36" s="16">
-        <f>(F36*H36-F37*H37)/(F32*H32)</f>
-        <v>2E-3</v>
-      </c>
-      <c r="Y36" s="15">
-        <f t="shared" si="2"/>
-        <v>0.14645308924485126</v>
-      </c>
-      <c r="Z36">
-        <f>W36*16</f>
-        <v>128000</v>
-      </c>
-      <c r="AA36" s="15">
-        <f t="shared" si="3"/>
-        <v>0.15439823889508761</v>
-      </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37">
-        <f>C36*2</f>
-        <v>80</v>
-      </c>
-      <c r="E37" t="s">
-        <v>41</v>
-      </c>
-      <c r="F37" s="18">
-        <v>2</v>
-      </c>
-      <c r="G37" t="s">
-        <v>58</v>
-      </c>
-      <c r="H37" s="18">
-        <v>1.5</v>
-      </c>
-      <c r="I37" s="13"/>
-      <c r="K37" t="s">
-        <v>56</v>
-      </c>
-      <c r="L37">
-        <f>L32-(H37-1)/2</f>
-        <v>19.75</v>
-      </c>
-      <c r="M37" t="s">
-        <v>57</v>
-      </c>
-      <c r="N37">
-        <f>N32-(H37-1)/2</f>
-        <v>24.75</v>
-      </c>
-      <c r="P37" s="24">
-        <f>(L37-L36)*$C$36</f>
-        <v>10</v>
-      </c>
-      <c r="Q37" s="24">
-        <f>(L37-L36+F37)*$C$36</f>
-        <v>90</v>
-      </c>
-      <c r="R37" s="24">
-        <f>(N37-N36)*$C$36</f>
-        <v>10</v>
-      </c>
-      <c r="S37" s="24">
-        <f>(N37-N36+H37)*$C$36</f>
-        <v>70</v>
-      </c>
-      <c r="U37" t="s">
-        <v>67</v>
-      </c>
-      <c r="V37">
-        <f t="shared" si="4"/>
-        <v>19200</v>
-      </c>
-      <c r="W37">
-        <f>V37</f>
-        <v>19200</v>
-      </c>
-      <c r="X37" s="16">
-        <f>(F37*H37)/(F32*H32)</f>
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="Y37" s="15">
-        <f t="shared" si="2"/>
-        <v>0.35148741418764301</v>
-      </c>
-      <c r="Z37">
-        <f>W37*32</f>
-        <v>614400</v>
-      </c>
-      <c r="AA37" s="15">
-        <f>Z37/$Z$40</f>
-        <v>0.74111154669642054</v>
-      </c>
-    </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="O39" t="s">
-        <v>83</v>
-      </c>
-      <c r="P39" s="25">
-        <f>($F$37-1)/2 *$C$37</f>
-        <v>40</v>
-      </c>
-      <c r="Q39" s="25">
-        <f>($H$37-1)/2 *$C$37</f>
-        <v>20</v>
-      </c>
-      <c r="R39" s="25"/>
-      <c r="S39" s="25"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="U40" t="s">
-        <v>74</v>
-      </c>
-      <c r="W40">
-        <f>SUM(W32:W37)</f>
-        <v>54625</v>
-      </c>
-      <c r="X40" s="17">
-        <f>SUM(X32:X37)</f>
-        <v>1</v>
-      </c>
-      <c r="Y40" s="17">
-        <f>SUM(Y32:Y37)</f>
-        <v>1</v>
-      </c>
-      <c r="Z40">
-        <f>SUM(Z32:Z37)</f>
-        <v>829025</v>
-      </c>
-      <c r="AA40" s="15">
-        <f>SUM(AA32:AA37)</f>
-        <v>1</v>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="P31:S31"/>
+  <mergeCells count="16">
+    <mergeCell ref="P50:S50"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="E38:I38"/>
+    <mergeCell ref="K38:N38"/>
+    <mergeCell ref="P27:S27"/>
+    <mergeCell ref="P38:S38"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="P17:S17"/>
+    <mergeCell ref="E8:I8"/>
     <mergeCell ref="K8:N8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="K19:N19"/>
     <mergeCell ref="P8:S8"/>
-    <mergeCell ref="P19:S19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
@@ -3570,7 +4347,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
